--- a/bots/crawl_ch/output/office_coop_2022-09-17.xlsx
+++ b/bots/crawl_ch/output/office_coop_2022-09-17.xlsx
@@ -531,24 +531,24 @@
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>3268660</t>
+          <t>3673118</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Scotch Crystal 6-1925R Klebeband Ersatzrolle 19 mm x 25 m</t>
+          <t>Collegeblock A4 kariert</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>/de/inspiration-geschenke/saisonale-promotionen/buerobedarf/scotch-crystal-6-1925r-klebeband-ersatzrolle-19-mm-x-25-m/p/3268660</t>
+          <t>/de/haushalt-tier/buero-papeterie/papier-bloecke-hefte/hefte/collegeblock-a4-kariert/p/3673118</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -564,7 +564,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Scotch</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -594,34 +594,34 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>['inspiration-geschenke', 'saisonale-promotionen', 'buerobedarf']</t>
+          <t>['haushalt-tier', 'buero-papeterie', 'papier-bloecke-hefte', 'hefte']</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>Scotch Crystal 6-1925R Klebeband Ersatzrolle 19 mm x 25 m 3.95 Schweizer Franken</t>
+          <t>Collegeblock A4 kariert 3.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>3673118</t>
+          <t>3268660</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Collegeblock A4 kariert</t>
+          <t>Scotch Crystal 6-1925R Klebeband Ersatzrolle 19 mm x 25 m</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/buero-papeterie/papier-bloecke-hefte/hefte/collegeblock-a4-kariert/p/3673118</t>
+          <t>/de/inspiration-geschenke/saisonale-promotionen/buerobedarf/scotch-crystal-6-1925r-klebeband-ersatzrolle-19-mm-x-25-m/p/3268660</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -637,7 +637,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Scotch</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -667,17 +667,17 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'buero-papeterie', 'papier-bloecke-hefte', 'hefte']</t>
+          <t>['inspiration-geschenke', 'saisonale-promotionen', 'buerobedarf']</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>Collegeblock A4 kariert 3.95 Schweizer Franken</t>
+          <t>Scotch Crystal 6-1925R Klebeband Ersatzrolle 19 mm x 25 m 3.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
@@ -750,7 +750,7 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
@@ -821,7 +821,7 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
@@ -894,116 +894,118 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>4959407</t>
+          <t>3267158</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Canon Kopierpapier A4</t>
+          <t>Klebstoff Cementit Universal 30g</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/buero-papeterie/papier-bloecke-hefte/papier/canon-kopierpapier-a4/p/4959407</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr"/>
+          <t>/de/haushalt-tier/buero-papeterie/kleber-schnur/kleber/klebstoff-cementit-universal-30g/p/3267158</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Canon</t>
+          <t>Cementit</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2.95</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>3.10/1ST</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'buero-papeterie', 'papier-bloecke-hefte', 'papier']</t>
+          <t>['haushalt-tier', 'buero-papeterie', 'kleber-schnur', 'kleber']</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>Canon Kopierpapier A4 50% Aktion 2.95 Schweizer Franken statt 5.95 Schweizer Franken</t>
+          <t>Klebstoff Cementit Universal 30g 3.10 Schweizer Franken</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>3267158</t>
+          <t>4638648</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Klebstoff Cementit Universal 30g</t>
+          <t>PRITT Klebestift (80 mm)</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/buero-papeterie/kleber-schnur/kleber/klebstoff-cementit-universal-30g/p/3267158</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr"/>
+          <t>/de/haushalt-tier/buero-papeterie/kleber-schnur/kleber/pritt-klebestift-80-mm/p/4638648</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="n">
+        <v>3</v>
+      </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Cementit</t>
+          <t>Pritt</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>3.10</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>3.10/1ST</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>3.10</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr">
         <is>
           <t>['haushalt-tier', 'buero-papeterie', 'kleber-schnur', 'kleber']</t>
@@ -1011,46 +1013,48 @@
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>Klebstoff Cementit Universal 30g 3.10 Schweizer Franken</t>
+          <t>PRITT Klebestift (80 mm) 4.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>4638648</t>
+          <t>5043550</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>PRITT Klebestift (80 mm)</t>
+          <t>Selbstklebe-Etiketten 40x12mm 320 Stück</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/buero-papeterie/kleber-schnur/kleber/pritt-klebestift-80-mm/p/4638648</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="n">
-        <v>3</v>
-      </c>
+          <t>/de/haushalt-tier/buero-papeterie/bueromaterial/diverses/selbstklebe-etiketten-40x12mm-320-stueck/p/5043550</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>320ST</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr"/>
       <c r="F10" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Pritt</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>0.95</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1059,145 +1063,141 @@
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'buero-papeterie', 'kleber-schnur', 'kleber']</t>
+          <t>['haushalt-tier', 'buero-papeterie', 'bueromaterial', 'diverses']</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>PRITT Klebestift (80 mm) 4.95 Schweizer Franken</t>
+          <t>Selbstklebe-Etiketten 40x12mm 320 Stück 50% Aktion 0.95 Schweizer Franken statt 1.90 Schweizer Franken</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>5043550</t>
+          <t>3353534</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Selbstklebe-Etiketten 40x12mm 320 Stück</t>
+          <t>Stabilo Boss Leuchtmarker gelb</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/buero-papeterie/bueromaterial/diverses/selbstklebe-etiketten-40x12mm-320-stueck/p/5043550</t>
+          <t>/de/inspiration-geschenke/saisonale-promotionen/buerobedarf/stabilo-boss-leuchtmarker-gelb/p/3353534</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>320ST</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr"/>
+          <t>1ST</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>1</v>
+      </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Stabilo</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>0.95</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>1.50/1ST</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'buero-papeterie', 'bueromaterial', 'diverses']</t>
+          <t>['inspiration-geschenke', 'saisonale-promotionen', 'buerobedarf']</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>Selbstklebe-Etiketten 40x12mm 320 Stück 50% Aktion 0.95 Schweizer Franken statt 1.90 Schweizer Franken</t>
+          <t>Stabilo Boss Leuchtmarker gelb 1.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>3353534</t>
+          <t>4959407</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Stabilo Boss Leuchtmarker gelb</t>
+          <t>Canon Kopierpapier A4</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>/de/inspiration-geschenke/saisonale-promotionen/buerobedarf/stabilo-boss-leuchtmarker-gelb/p/3353534</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
-      <c r="E12" t="n">
-        <v>1</v>
-      </c>
+          <t>/de/haushalt-tier/buero-papeterie/papier-bloecke-hefte/papier/canon-kopierpapier-a4/p/4959407</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
       <c r="F12" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Stabilo</t>
+          <t>Canon</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>1.50</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>1.50/1ST</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>1.50</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr">
         <is>
-          <t>['inspiration-geschenke', 'saisonale-promotionen', 'buerobedarf']</t>
+          <t>['haushalt-tier', 'buero-papeterie', 'papier-bloecke-hefte', 'papier']</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>Stabilo Boss Leuchtmarker gelb 1.50 Schweizer Franken</t>
+          <t>Canon Kopierpapier A4 50% Aktion 2.95 Schweizer Franken statt 5.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
@@ -1268,7 +1268,7 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
@@ -1341,7 +1341,7 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
@@ -1414,7 +1414,7 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
@@ -1485,7 +1485,7 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
@@ -1542,7 +1542,7 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
@@ -1595,7 +1595,7 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
@@ -1666,7 +1666,7 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
@@ -1719,7 +1719,7 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
@@ -1790,7 +1790,7 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
@@ -1863,7 +1863,7 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
@@ -1936,7 +1936,7 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
@@ -2007,7 +2007,7 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
@@ -2058,7 +2058,7 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
@@ -2109,7 +2109,7 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
@@ -2182,7 +2182,7 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
@@ -2253,7 +2253,7 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
@@ -2324,7 +2324,7 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
@@ -2397,7 +2397,7 @@
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
@@ -2468,7 +2468,7 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
@@ -2541,7 +2541,7 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
@@ -2614,7 +2614,7 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
@@ -2665,7 +2665,7 @@
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
@@ -2738,7 +2738,7 @@
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
@@ -2811,7 +2811,7 @@
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
@@ -2858,172 +2858,172 @@
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>5552643</t>
+          <t>4353530</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>STABILO Folienschreiber OHPen permanent superfein 4er Etui</t>
+          <t>Pilot Tintenroller Frixion Ball Clicker blau</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/buero-papeterie/stifte-malfarben/filzstifte/stabilo-folienschreiber-ohpen-permanent-superfein-4er-etui/p/5552643</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>4ST</t>
-        </is>
-      </c>
-      <c r="E38" t="n">
-        <v>1</v>
-      </c>
+          <t>/de/haushalt-tier/buero-papeterie/stifte-malfarben/weitere-stifte/pilot-tintenroller-frixion-ball-clicker-blau/p/4353530</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr"/>
       <c r="F38" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Stabilo</t>
+          <t>Pilot</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>7.95</t>
-        </is>
-      </c>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>1.99/1ST</t>
-        </is>
-      </c>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>1.99</t>
-        </is>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'buero-papeterie', 'stifte-malfarben', 'filzstifte']</t>
+          <t>['haushalt-tier', 'buero-papeterie', 'stifte-malfarben', 'weitere-stifte']</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>STABILO Folienschreiber OHPen permanent superfein 4er Etui 7.95 Schweizer Franken</t>
+          <t>Pilot Tintenroller Frixion Ball Clicker blau 4.70 Schweizer Franken</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>4353530</t>
+          <t>5689547</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Pilot Tintenroller Frixion Ball Clicker blau</t>
+          <t>Radiergummi Neon 2 St.</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/buero-papeterie/stifte-malfarben/weitere-stifte/pilot-tintenroller-frixion-ball-clicker-blau/p/4353530</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr"/>
+          <t>/de/haushalt-tier/buero-papeterie/bueromaterial/radiergummis/radiergummi-neon-2-st/p/5689547</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2ST</t>
+        </is>
+      </c>
       <c r="E39" t="inlineStr"/>
       <c r="F39" t="n">
         <v>0</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Pilot</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>4.70</t>
-        </is>
-      </c>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>0.55/1ST</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'buero-papeterie', 'stifte-malfarben', 'weitere-stifte']</t>
+          <t>['haushalt-tier', 'buero-papeterie', 'bueromaterial', 'radiergummis']</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>Pilot Tintenroller Frixion Ball Clicker blau 4.70 Schweizer Franken</t>
+          <t>Radiergummi Neon 2 St. 1.10 Schweizer Franken</t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>5689547</t>
+          <t>5552643</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Radiergummi Neon 2 St.</t>
+          <t>STABILO Folienschreiber OHPen permanent superfein 4er Etui</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/buero-papeterie/bueromaterial/radiergummis/radiergummi-neon-2-st/p/5689547</t>
+          <t>/de/haushalt-tier/buero-papeterie/stifte-malfarben/filzstifte/stabilo-folienschreiber-ohpen-permanent-superfein-4er-etui/p/5552643</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>2ST</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr"/>
+          <t>4ST</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
+        <v>1</v>
+      </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Stabilo</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>1.10</t>
+          <t>7.95</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>0.55/1ST</t>
+          <t>1.99/1ST</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -3033,7 +3033,7 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>0.55</t>
+          <t>1.99</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
@@ -3043,17 +3043,17 @@
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'buero-papeterie', 'bueromaterial', 'radiergummis']</t>
+          <t>['haushalt-tier', 'buero-papeterie', 'stifte-malfarben', 'filzstifte']</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>Radiergummi Neon 2 St. 1.10 Schweizer Franken</t>
+          <t>STABILO Folienschreiber OHPen permanent superfein 4er Etui 7.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
@@ -3104,151 +3104,151 @@
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>3268656</t>
+          <t>3667745</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Scotch Magic 8-1915D Klebeband Abroller 19 mm x 15 m</t>
+          <t>Oecoplan Kartonregister A4 6-tlg</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/buero-papeterie/kleber-schnur/klebeband/scotch-magic-8-1915d-klebeband-abroller-19-mm-x-15-m/p/3268656</t>
+          <t>/de/haushalt-tier/buero-papeterie/ordner-register/register/oecoplan-kartonregister-a4-6-tlg/p/3667745</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
+          <t>2ST</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr"/>
+      <c r="F42" t="n">
+        <v>0</v>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>Coop</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>1.25/1ST</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
           <t>1ST</t>
         </is>
       </c>
-      <c r="E42" t="n">
-        <v>1</v>
-      </c>
-      <c r="F42" t="n">
-        <v>1</v>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>Scotch</t>
-        </is>
-      </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>3.70</t>
-        </is>
-      </c>
-      <c r="I42" t="inlineStr">
-        <is>
-          <t>3.70/1ST</t>
-        </is>
-      </c>
-      <c r="J42" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>3.70</t>
-        </is>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'buero-papeterie', 'kleber-schnur', 'klebeband']</t>
+          <t>['haushalt-tier', 'buero-papeterie', 'ordner-register', 'register']</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>Scotch Magic 8-1915D Klebeband Abroller 19 mm x 15 m 3.70 Schweizer Franken</t>
+          <t>Oecoplan Kartonregister A4 6-tlg 2.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>4640013</t>
+          <t>3268656</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Uhu Alleskleber Super Strong &amp;amp; Safe</t>
+          <t>Scotch Magic 8-1915D Klebeband Abroller 19 mm x 15 m</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/buero-papeterie/kleber-schnur/kleber/uhu-alleskleber-super-strong-safe/p/4640013</t>
+          <t>/de/haushalt-tier/buero-papeterie/kleber-schnur/klebeband/scotch-magic-8-1915d-klebeband-abroller-19-mm-x-15-m/p/3268656</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>3g</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr"/>
+          <t>1ST</t>
+        </is>
+      </c>
+      <c r="E43" t="n">
+        <v>1</v>
+      </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Uhu</t>
+          <t>Scotch</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>3.70</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>165.00/100g</t>
+          <t>3.70/1ST</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Preis pro 100 Gramm</t>
+          <t>Preis pro 1 Stück</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>165.00</t>
+          <t>3.70</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>100g</t>
+          <t>1ST</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'buero-papeterie', 'kleber-schnur', 'kleber']</t>
+          <t>['haushalt-tier', 'buero-papeterie', 'kleber-schnur', 'klebeband']</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>Uhu Alleskleber Super Strong &amp;amp; Safe 4.95 Schweizer Franken</t>
+          <t>Scotch Magic 8-1915D Klebeband Abroller 19 mm x 15 m 3.70 Schweizer Franken</t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
@@ -3299,34 +3299,32 @@
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>3667745</t>
+          <t>4371718</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Oecoplan Kartonregister A4 6-tlg</t>
+          <t>Qualité&amp;amp;Prix Haushalts-/Büroschere 20 cm</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/buero-papeterie/ordner-register/register/oecoplan-kartonregister-a4-6-tlg/p/3667745</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>2ST</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr"/>
+          <t>/de/inspiration-geschenke/saisonale-promotionen/buerobedarf/qualite-prix-haushalts-bueroschere-20-cm/p/4371718</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr"/>
+      <c r="E45" t="n">
+        <v>6</v>
+      </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
@@ -3335,67 +3333,49 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>2.50</t>
-        </is>
-      </c>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>1.25/1ST</t>
-        </is>
-      </c>
-      <c r="J45" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>1.25</t>
-        </is>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>7.95</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'buero-papeterie', 'ordner-register', 'register']</t>
+          <t>['inspiration-geschenke', 'saisonale-promotionen', 'buerobedarf']</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>Oecoplan Kartonregister A4 6-tlg 2.50 Schweizer Franken</t>
+          <t>Qualité&amp;amp;Prix Haushalts-/Büroschere 20 cm 7.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>4371718</t>
+          <t>4039535</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Qualité&amp;amp;Prix Haushalts-/Büroschere 20 cm</t>
+          <t>Qualité&amp;amp;Prix Schulhefte E5 4mm kariert ohne Rahmen 2 Stk.</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>/de/inspiration-geschenke/saisonale-promotionen/buerobedarf/qualite-prix-haushalts-bueroschere-20-cm/p/4371718</t>
+          <t>/de/haushalt-tier/buero-papeterie/papier-bloecke-hefte/hefte/qualite-prix-schulhefte-e5-4mm-kariert-ohne-rahmen-2-stk/p/4039535</t>
         </is>
       </c>
       <c r="D46" t="inlineStr"/>
-      <c r="E46" t="n">
-        <v>6</v>
-      </c>
+      <c r="E46" t="inlineStr"/>
       <c r="F46" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
@@ -3404,7 +3384,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>7.95</t>
+          <t>2.45</t>
         </is>
       </c>
       <c r="I46" t="inlineStr"/>
@@ -3413,34 +3393,34 @@
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr">
         <is>
-          <t>['inspiration-geschenke', 'saisonale-promotionen', 'buerobedarf']</t>
+          <t>['haushalt-tier', 'buero-papeterie', 'papier-bloecke-hefte', 'hefte']</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>Qualité&amp;amp;Prix Haushalts-/Büroschere 20 cm 7.95 Schweizer Franken</t>
+          <t>Qualité&amp;amp;Prix Schulhefte E5 4mm kariert ohne Rahmen 2 Stk. 2.45 Schweizer Franken</t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>4039535</t>
+          <t>3823035</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Qualité&amp;amp;Prix Schulhefte E5 4mm kariert ohne Rahmen 2 Stk.</t>
+          <t>Ringbuch A4 2-Ring transparent</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/buero-papeterie/papier-bloecke-hefte/hefte/qualite-prix-schulhefte-e5-4mm-kariert-ohne-rahmen-2-stk/p/4039535</t>
+          <t>/de/haushalt-tier/buero-papeterie/ordner-register/ordner/ringbuch-a4-2-ring-transparent/p/3823035</t>
         </is>
       </c>
       <c r="D47" t="inlineStr"/>
@@ -3455,7 +3435,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>2.45</t>
+          <t>3.80</t>
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
@@ -3464,49 +3444,51 @@
       <c r="L47" t="inlineStr"/>
       <c r="M47" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'buero-papeterie', 'papier-bloecke-hefte', 'hefte']</t>
+          <t>['haushalt-tier', 'buero-papeterie', 'ordner-register', 'ordner']</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>Qualité&amp;amp;Prix Schulhefte E5 4mm kariert ohne Rahmen 2 Stk. 2.45 Schweizer Franken</t>
+          <t>Ringbuch A4 2-Ring transparent 3.80 Schweizer Franken</t>
         </is>
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>3823035</t>
+          <t>4021792</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Ringbuch A4 2-Ring transparent</t>
+          <t>Scotch 1447 Präzisionsschere rot 18 cm</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/buero-papeterie/ordner-register/ordner/ringbuch-a4-2-ring-transparent/p/3823035</t>
+          <t>/de/haushalt-tier/buero-papeterie/bueromaterial/diverses/scotch-1447-praezisionsschere-rot-18-cm/p/4021792</t>
         </is>
       </c>
       <c r="D48" t="inlineStr"/>
-      <c r="E48" t="inlineStr"/>
+      <c r="E48" t="n">
+        <v>1</v>
+      </c>
       <c r="F48" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Scotch</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>3.80</t>
+          <t>11.95</t>
         </is>
       </c>
       <c r="I48" t="inlineStr"/>
@@ -3515,70 +3497,88 @@
       <c r="L48" t="inlineStr"/>
       <c r="M48" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'buero-papeterie', 'ordner-register', 'ordner']</t>
+          <t>['haushalt-tier', 'buero-papeterie', 'bueromaterial', 'diverses']</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>Ringbuch A4 2-Ring transparent 3.80 Schweizer Franken</t>
+          <t>Scotch 1447 Präzisionsschere rot 18 cm 11.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>4021792</t>
+          <t>4640013</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Scotch 1447 Präzisionsschere rot 18 cm</t>
+          <t>Uhu Alleskleber Super Strong &amp;amp; Safe</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/buero-papeterie/bueromaterial/diverses/scotch-1447-praezisionsschere-rot-18-cm/p/4021792</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr"/>
-      <c r="E49" t="n">
-        <v>1</v>
-      </c>
+          <t>/de/haushalt-tier/buero-papeterie/kleber-schnur/kleber/uhu-alleskleber-super-strong-safe/p/4640013</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>3g</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr"/>
       <c r="F49" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Scotch</t>
+          <t>Uhu</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>11.95</t>
-        </is>
-      </c>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>165.00/100g</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>Preis pro 100 Gramm</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>165.00</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>100g</t>
+        </is>
+      </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'buero-papeterie', 'bueromaterial', 'diverses']</t>
+          <t>['haushalt-tier', 'buero-papeterie', 'kleber-schnur', 'kleber']</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>Scotch 1447 Präzisionsschere rot 18 cm 11.95 Schweizer Franken</t>
+          <t>Uhu Alleskleber Super Strong &amp;amp; Safe 4.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
@@ -3629,7 +3629,7 @@
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
@@ -3680,7 +3680,7 @@
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
@@ -3753,7 +3753,7 @@
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
@@ -3806,7 +3806,7 @@
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
@@ -3857,7 +3857,7 @@
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
@@ -3908,7 +3908,7 @@
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
@@ -3979,7 +3979,7 @@
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
@@ -4032,7 +4032,7 @@
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
@@ -4083,7 +4083,7 @@
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
@@ -4156,7 +4156,7 @@
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
@@ -4207,7 +4207,7 @@
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
@@ -4280,7 +4280,7 @@
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
@@ -4331,7 +4331,7 @@
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
@@ -4402,7 +4402,7 @@
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
@@ -4455,7 +4455,7 @@
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
@@ -4528,7 +4528,7 @@
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
@@ -4601,7 +4601,7 @@
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
@@ -4654,7 +4654,7 @@
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
@@ -4725,7 +4725,7 @@
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
@@ -4778,7 +4778,7 @@
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
@@ -4829,7 +4829,7 @@
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
@@ -4902,7 +4902,7 @@
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
@@ -4953,7 +4953,7 @@
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
@@ -5026,7 +5026,7 @@
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
@@ -5097,7 +5097,7 @@
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
@@ -5150,7 +5150,7 @@
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
@@ -5201,7 +5201,7 @@
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
@@ -5252,7 +5252,7 @@
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
@@ -5325,7 +5325,7 @@
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
@@ -5376,7 +5376,7 @@
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
@@ -5447,7 +5447,7 @@
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
@@ -5520,7 +5520,7 @@
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
@@ -5591,7 +5591,7 @@
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
@@ -5642,7 +5642,7 @@
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
@@ -5715,7 +5715,7 @@
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
@@ -5768,7 +5768,7 @@
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
@@ -5819,7 +5819,7 @@
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
@@ -5890,7 +5890,7 @@
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
@@ -5941,7 +5941,7 @@
       </c>
       <c r="O88" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
@@ -6012,7 +6012,7 @@
       </c>
       <c r="O89" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
@@ -6059,7 +6059,7 @@
       </c>
       <c r="O90" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
@@ -6130,7 +6130,7 @@
       </c>
       <c r="O91" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
@@ -6181,7 +6181,7 @@
       </c>
       <c r="O92" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
@@ -6252,7 +6252,7 @@
       </c>
       <c r="O93" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
@@ -6303,7 +6303,7 @@
       </c>
       <c r="O94" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
@@ -6374,7 +6374,7 @@
       </c>
       <c r="O95" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
@@ -6425,7 +6425,7 @@
       </c>
       <c r="O96" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
@@ -6498,7 +6498,7 @@
       </c>
       <c r="O97" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
@@ -6569,27 +6569,31 @@
       </c>
       <c r="O98" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>3625271</t>
+          <t>3740304</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Qualité&amp;amp;Prix Ersatzklotz farbig 750 Blatt</t>
+          <t>Qualité&amp;amp;Prix Heftklammern 24/6 2000 Stk.</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>/de/inspiration-geschenke/saisonale-promotionen/buerobedarf/qualite-prix-ersatzklotz-farbig-750-blatt/p/3625271</t>
-        </is>
-      </c>
-      <c r="D99" t="inlineStr"/>
+          <t>/de/haushalt-tier/buero-papeterie/bueromaterial/hefter-heftklammern/qualite-prix-heftklammern-246-2000-stk/p/3740304</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>1000ST</t>
+        </is>
+      </c>
       <c r="E99" t="n">
         <v>1</v>
       </c>
@@ -6603,7 +6607,7 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>5.50</t>
+          <t>1.70</t>
         </is>
       </c>
       <c r="I99" t="inlineStr"/>
@@ -6612,46 +6616,42 @@
       <c r="L99" t="inlineStr"/>
       <c r="M99" t="inlineStr">
         <is>
-          <t>['inspiration-geschenke', 'saisonale-promotionen', 'buerobedarf']</t>
+          <t>['haushalt-tier', 'buero-papeterie', 'bueromaterial', 'hefter-heftklammern']</t>
         </is>
       </c>
       <c r="N99" t="inlineStr">
         <is>
-          <t>Qualité&amp;amp;Prix Ersatzklotz farbig 750 Blatt 5.50 Schweizer Franken</t>
+          <t>Qualité&amp;amp;Prix Heftklammern 24/6 2000 Stk. 1.70 Schweizer Franken</t>
         </is>
       </c>
       <c r="O99" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>3740304</t>
+          <t>4039616</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Qualité&amp;amp;Prix Heftklammern 24/6 2000 Stk.</t>
+          <t>Spiralheft A4 9mm liniert ohne Rahmen</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/buero-papeterie/bueromaterial/hefter-heftklammern/qualite-prix-heftklammern-246-2000-stk/p/3740304</t>
-        </is>
-      </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>1000ST</t>
-        </is>
-      </c>
+          <t>/de/haushalt-tier/buero-papeterie/papier-bloecke-hefte/hefte/spiralheft-a4-9mm-liniert-ohne-rahmen/p/4039616</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr"/>
       <c r="E100" t="n">
         <v>1</v>
       </c>
       <c r="F100" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
@@ -6660,7 +6660,7 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>1.70</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="I100" t="inlineStr"/>
@@ -6669,42 +6669,40 @@
       <c r="L100" t="inlineStr"/>
       <c r="M100" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'buero-papeterie', 'bueromaterial', 'hefter-heftklammern']</t>
+          <t>['haushalt-tier', 'buero-papeterie', 'papier-bloecke-hefte', 'hefte']</t>
         </is>
       </c>
       <c r="N100" t="inlineStr">
         <is>
-          <t>Qualité&amp;amp;Prix Heftklammern 24/6 2000 Stk. 1.70 Schweizer Franken</t>
+          <t>Spiralheft A4 9mm liniert ohne Rahmen 2.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O100" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>4039616</t>
+          <t>4671246</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Spiralheft A4 9mm liniert ohne Rahmen</t>
+          <t>Zeigetaschen klappbar 100my A4 10 Stück</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/buero-papeterie/papier-bloecke-hefte/hefte/spiralheft-a4-9mm-liniert-ohne-rahmen/p/4039616</t>
+          <t>/de/haushalt-tier/buero-papeterie/mappen-huellen-planer/mappen/zeigetaschen-klappbar-100my-a4-10-stueck/p/4671246</t>
         </is>
       </c>
       <c r="D101" t="inlineStr"/>
-      <c r="E101" t="n">
-        <v>1</v>
-      </c>
+      <c r="E101" t="inlineStr"/>
       <c r="F101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
@@ -6713,7 +6711,7 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>2.80</t>
         </is>
       </c>
       <c r="I101" t="inlineStr"/>
@@ -6722,34 +6720,34 @@
       <c r="L101" t="inlineStr"/>
       <c r="M101" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'buero-papeterie', 'papier-bloecke-hefte', 'hefte']</t>
+          <t>['haushalt-tier', 'buero-papeterie', 'mappen-huellen-planer', 'mappen']</t>
         </is>
       </c>
       <c r="N101" t="inlineStr">
         <is>
-          <t>Spiralheft A4 9mm liniert ohne Rahmen 2.95 Schweizer Franken</t>
+          <t>Zeigetaschen klappbar 100my A4 10 Stück 2.80 Schweizer Franken</t>
         </is>
       </c>
       <c r="O101" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>4671246</t>
+          <t>5049210</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Zeigetaschen klappbar 100my A4 10 Stück</t>
+          <t>Geschenkband Splicer für Kräuselband</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/buero-papeterie/mappen-huellen-planer/mappen/zeigetaschen-klappbar-100my-a4-10-stueck/p/4671246</t>
+          <t>/de/haushalt-tier/buero-papeterie/geschenkverpackung-baender/baender/geschenkband-splicer-fuer-kraeuselband/p/5049210</t>
         </is>
       </c>
       <c r="D102" t="inlineStr"/>
@@ -6764,7 +6762,7 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>2.80</t>
+          <t>2.25</t>
         </is>
       </c>
       <c r="I102" t="inlineStr"/>
@@ -6773,40 +6771,42 @@
       <c r="L102" t="inlineStr"/>
       <c r="M102" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'buero-papeterie', 'mappen-huellen-planer', 'mappen']</t>
+          <t>['haushalt-tier', 'buero-papeterie', 'geschenkverpackung-baender', 'baender']</t>
         </is>
       </c>
       <c r="N102" t="inlineStr">
         <is>
-          <t>Zeigetaschen klappbar 100my A4 10 Stück 2.80 Schweizer Franken</t>
+          <t>Geschenkband Splicer für Kräuselband 50% Aktion 2.25 Schweizer Franken statt 4.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="O102" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>5049210</t>
+          <t>3625271</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Geschenkband Splicer für Kräuselband</t>
+          <t>Qualité&amp;amp;Prix Ersatzklotz farbig 750 Blatt</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/buero-papeterie/geschenkverpackung-baender/baender/geschenkband-splicer-fuer-kraeuselband/p/5049210</t>
+          <t>/de/inspiration-geschenke/saisonale-promotionen/buerobedarf/qualite-prix-ersatzklotz-farbig-750-blatt/p/3625271</t>
         </is>
       </c>
       <c r="D103" t="inlineStr"/>
-      <c r="E103" t="inlineStr"/>
+      <c r="E103" t="n">
+        <v>1</v>
+      </c>
       <c r="F103" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
@@ -6815,7 +6815,7 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>2.25</t>
+          <t>5.50</t>
         </is>
       </c>
       <c r="I103" t="inlineStr"/>
@@ -6824,17 +6824,17 @@
       <c r="L103" t="inlineStr"/>
       <c r="M103" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'buero-papeterie', 'geschenkverpackung-baender', 'baender']</t>
+          <t>['inspiration-geschenke', 'saisonale-promotionen', 'buerobedarf']</t>
         </is>
       </c>
       <c r="N103" t="inlineStr">
         <is>
-          <t>Geschenkband Splicer für Kräuselband 50% Aktion 2.25 Schweizer Franken statt 4.50 Schweizer Franken</t>
+          <t>Qualité&amp;amp;Prix Ersatzklotz farbig 750 Blatt 5.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="O103" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
@@ -6905,7 +6905,7 @@
       </c>
       <c r="O104" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
@@ -6956,7 +6956,7 @@
       </c>
       <c r="O105" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
@@ -7007,7 +7007,7 @@
       </c>
       <c r="O106" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
@@ -7060,7 +7060,7 @@
       </c>
       <c r="O107" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
@@ -7131,7 +7131,7 @@
       </c>
       <c r="O108" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
@@ -7204,7 +7204,7 @@
       </c>
       <c r="O109" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
@@ -7275,7 +7275,7 @@
       </c>
       <c r="O110" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
@@ -7348,7 +7348,7 @@
       </c>
       <c r="O111" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
@@ -7403,7 +7403,7 @@
       </c>
       <c r="O112" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
@@ -7474,7 +7474,7 @@
       </c>
       <c r="O113" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
@@ -7525,7 +7525,7 @@
       </c>
       <c r="O114" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
@@ -7572,7 +7572,7 @@
       </c>
       <c r="O115" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
@@ -7643,7 +7643,7 @@
       </c>
       <c r="O116" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
@@ -7694,7 +7694,7 @@
       </c>
       <c r="O117" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
@@ -7747,7 +7747,7 @@
       </c>
       <c r="O118" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
@@ -7798,7 +7798,7 @@
       </c>
       <c r="O119" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
@@ -7851,7 +7851,7 @@
       </c>
       <c r="O120" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
@@ -7922,7 +7922,7 @@
       </c>
       <c r="O121" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
@@ -7993,7 +7993,7 @@
       </c>
       <c r="O122" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
@@ -8064,7 +8064,7 @@
       </c>
       <c r="O123" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
@@ -8111,7 +8111,7 @@
       </c>
       <c r="O124" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
@@ -8182,7 +8182,7 @@
       </c>
       <c r="O125" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
@@ -8235,7 +8235,7 @@
       </c>
       <c r="O126" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
@@ -8306,7 +8306,7 @@
       </c>
       <c r="O127" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
@@ -8353,7 +8353,7 @@
       </c>
       <c r="O128" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
@@ -8424,7 +8424,7 @@
       </c>
       <c r="O129" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
@@ -8475,7 +8475,7 @@
       </c>
       <c r="O130" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
@@ -8546,7 +8546,7 @@
       </c>
       <c r="O131" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
@@ -8597,7 +8597,7 @@
       </c>
       <c r="O132" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
@@ -8648,7 +8648,7 @@
       </c>
       <c r="O133" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
@@ -8721,7 +8721,7 @@
       </c>
       <c r="O134" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
@@ -8772,7 +8772,7 @@
       </c>
       <c r="O135" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
@@ -8845,7 +8845,7 @@
       </c>
       <c r="O136" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
@@ -8896,7 +8896,7 @@
       </c>
       <c r="O137" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
@@ -8947,7 +8947,7 @@
       </c>
       <c r="O138" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
@@ -8998,7 +8998,7 @@
       </c>
       <c r="O139" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
@@ -9069,7 +9069,7 @@
       </c>
       <c r="O140" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
@@ -9142,7 +9142,7 @@
       </c>
       <c r="O141" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
@@ -9215,7 +9215,7 @@
       </c>
       <c r="O142" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
@@ -9266,7 +9266,7 @@
       </c>
       <c r="O143" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
@@ -9337,31 +9337,27 @@
       </c>
       <c r="O144" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>4260401</t>
+          <t>3625269</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Qualité&amp;amp;Prix Quick-Beutel 20  Stk. 80x90 mm</t>
+          <t>Qualité&amp;amp;Prix Zettelbox farbig 750 Blatt</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/buero-papeterie/geschenkverpackung-baender/geschenkbeutel/qualite-prix-quick-beutel-20-stk-80x90-mm/p/4260401</t>
-        </is>
-      </c>
-      <c r="D145" t="inlineStr">
-        <is>
-          <t>20ST</t>
-        </is>
-      </c>
+          <t>/de/haushalt-tier/buero-papeterie/notizzettel-karteikarten/notizzettel/qualite-prix-zettelbox-farbig-750-blatt/p/3625269</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr"/>
       <c r="E145" t="inlineStr"/>
       <c r="F145" t="n">
         <v>0</v>
@@ -9373,198 +9369,184 @@
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>1.95</t>
-        </is>
-      </c>
-      <c r="I145" t="inlineStr">
-        <is>
-          <t>0.10/1ST</t>
-        </is>
-      </c>
-      <c r="J145" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>0.10</t>
-        </is>
-      </c>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="I145" t="inlineStr"/>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
       <c r="M145" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'buero-papeterie', 'geschenkverpackung-baender', 'geschenkbeutel']</t>
+          <t>['haushalt-tier', 'buero-papeterie', 'notizzettel-karteikarten', 'notizzettel']</t>
         </is>
       </c>
       <c r="N145" t="inlineStr">
         <is>
-          <t>Qualité&amp;amp;Prix Quick-Beutel 20  Stk. 80x90 mm 1.95 Schweizer Franken</t>
+          <t>Qualité&amp;amp;Prix Zettelbox farbig 750 Blatt 6.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="O145" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>3625269</t>
+          <t>3434738</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Qualité&amp;amp;Prix Zettelbox farbig 750 Blatt</t>
+          <t>Caran d'Ache Classic Fibralo Assortiert 15Stk.</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/buero-papeterie/notizzettel-karteikarten/notizzettel/qualite-prix-zettelbox-farbig-750-blatt/p/3625269</t>
-        </is>
-      </c>
-      <c r="D146" t="inlineStr"/>
+          <t>/de/haushalt-tier/buero-papeterie/stifte-malfarben/filzstifte/caran-d-ache-classic-fibralo-assortiert-15stk/p/3434738</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>15ST</t>
+        </is>
+      </c>
       <c r="E146" t="inlineStr"/>
       <c r="F146" t="n">
         <v>0</v>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Caran d'ache</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>6.50</t>
-        </is>
-      </c>
-      <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
+          <t>21.95</t>
+        </is>
+      </c>
+      <c r="I146" t="inlineStr">
+        <is>
+          <t>1.46/1ST</t>
+        </is>
+      </c>
+      <c r="J146" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="M146" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'buero-papeterie', 'notizzettel-karteikarten', 'notizzettel']</t>
+          <t>['haushalt-tier', 'buero-papeterie', 'stifte-malfarben', 'filzstifte']</t>
         </is>
       </c>
       <c r="N146" t="inlineStr">
         <is>
-          <t>Qualité&amp;amp;Prix Zettelbox farbig 750 Blatt 6.50 Schweizer Franken</t>
+          <t>Caran d'Ache Classic Fibralo Assortiert 15Stk. 21.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O146" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>3434738</t>
+          <t>5043050</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Caran d'Ache Classic Fibralo Assortiert 15Stk.</t>
+          <t>Dreifachspitzdose GRIP 2001 silber</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/buero-papeterie/stifte-malfarben/filzstifte/caran-d-ache-classic-fibralo-assortiert-15stk/p/3434738</t>
-        </is>
-      </c>
-      <c r="D147" t="inlineStr">
-        <is>
-          <t>15ST</t>
-        </is>
-      </c>
-      <c r="E147" t="inlineStr"/>
+          <t>/de/inspiration-geschenke/saisonale-promotionen/buerobedarf/dreifachspitzdose-grip-2001-silber/p/5043050</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr"/>
+      <c r="E147" t="n">
+        <v>1</v>
+      </c>
       <c r="F147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>Caran d'ache</t>
+          <t>Faber Castell</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>21.95</t>
-        </is>
-      </c>
-      <c r="I147" t="inlineStr">
-        <is>
-          <t>1.46/1ST</t>
-        </is>
-      </c>
-      <c r="J147" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>1.46</t>
-        </is>
-      </c>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="I147" t="inlineStr"/>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
       <c r="M147" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'buero-papeterie', 'stifte-malfarben', 'filzstifte']</t>
+          <t>['inspiration-geschenke', 'saisonale-promotionen', 'buerobedarf']</t>
         </is>
       </c>
       <c r="N147" t="inlineStr">
         <is>
-          <t>Caran d'Ache Classic Fibralo Assortiert 15Stk. 21.95 Schweizer Franken</t>
+          <t>Dreifachspitzdose GRIP 2001 silber 4.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O147" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>5043050</t>
+          <t>4887984</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Dreifachspitzdose GRIP 2001 silber</t>
+          <t>Eckspannmappe A4 Karton schwarz</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>/de/inspiration-geschenke/saisonale-promotionen/buerobedarf/dreifachspitzdose-grip-2001-silber/p/5043050</t>
+          <t>/de/haushalt-tier/buero-papeterie/mappen-huellen-planer/mappen/eckspannmappe-a4-karton-schwarz/p/4887984</t>
         </is>
       </c>
       <c r="D148" t="inlineStr"/>
       <c r="E148" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F148" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>Faber Castell</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="I148" t="inlineStr"/>
@@ -9573,51 +9555,49 @@
       <c r="L148" t="inlineStr"/>
       <c r="M148" t="inlineStr">
         <is>
-          <t>['inspiration-geschenke', 'saisonale-promotionen', 'buerobedarf']</t>
+          <t>['haushalt-tier', 'buero-papeterie', 'mappen-huellen-planer', 'mappen']</t>
         </is>
       </c>
       <c r="N148" t="inlineStr">
         <is>
-          <t>Dreifachspitzdose GRIP 2001 silber 4.95 Schweizer Franken</t>
+          <t>Eckspannmappe A4 Karton schwarz 1.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O148" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>4887984</t>
+          <t>6029340</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Eckspannmappe A4 Karton schwarz</t>
+          <t>HP Tintenpatrone 303 XL schwarz</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/buero-papeterie/mappen-huellen-planer/mappen/eckspannmappe-a4-karton-schwarz/p/4887984</t>
+          <t>/de/haushalt-tier/buero-papeterie/druckerpatronen/hp/hp-tintenpatrone-303-xl-schwarz/p/6029340</t>
         </is>
       </c>
       <c r="D149" t="inlineStr"/>
-      <c r="E149" t="n">
-        <v>3</v>
-      </c>
+      <c r="E149" t="inlineStr"/>
       <c r="F149" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>HP</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>44.95</t>
         </is>
       </c>
       <c r="I149" t="inlineStr"/>
@@ -9626,40 +9606,42 @@
       <c r="L149" t="inlineStr"/>
       <c r="M149" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'buero-papeterie', 'mappen-huellen-planer', 'mappen']</t>
+          <t>['haushalt-tier', 'buero-papeterie', 'druckerpatronen', 'hp']</t>
         </is>
       </c>
       <c r="N149" t="inlineStr">
         <is>
-          <t>Eckspannmappe A4 Karton schwarz 1.95 Schweizer Franken</t>
+          <t>HP Tintenpatrone 303 XL schwarz 44.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O149" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>6029340</t>
+          <t>6769534</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>HP Tintenpatrone 303 XL schwarz</t>
+          <t>HP Tintenpatrone 305XL schwarz</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/buero-papeterie/druckerpatronen/hp/hp-tintenpatrone-303-xl-schwarz/p/6029340</t>
+          <t>/de/haushalt-tier/buero-papeterie/druckerpatronen/hp/hp-tintenpatrone-305xl-schwarz/p/6769534</t>
         </is>
       </c>
       <c r="D150" t="inlineStr"/>
-      <c r="E150" t="inlineStr"/>
+      <c r="E150" t="n">
+        <v>1</v>
+      </c>
       <c r="F150" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
@@ -9668,7 +9650,7 @@
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>44.95</t>
+          <t>24.95</t>
         </is>
       </c>
       <c r="I150" t="inlineStr"/>
@@ -9682,106 +9664,126 @@
       </c>
       <c r="N150" t="inlineStr">
         <is>
-          <t>HP Tintenpatrone 303 XL schwarz 44.95 Schweizer Franken</t>
+          <t>HP Tintenpatrone 305XL schwarz 24.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O150" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>6769534</t>
+          <t>3887749</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>HP Tintenpatrone 305XL schwarz</t>
+          <t>Läufer Radiergummi Soft 240 2 Stück</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/buero-papeterie/druckerpatronen/hp/hp-tintenpatrone-305xl-schwarz/p/6769534</t>
-        </is>
-      </c>
-      <c r="D151" t="inlineStr"/>
-      <c r="E151" t="n">
-        <v>1</v>
-      </c>
+          <t>/de/haushalt-tier/buero-papeterie/bueromaterial/radiergummis/laeufer-radiergummi-soft-240-2-stueck/p/3887749</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>2ST</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr"/>
       <c r="F151" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>HP</t>
+          <t>Läufer</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>24.95</t>
-        </is>
-      </c>
-      <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="I151" t="inlineStr">
+        <is>
+          <t>1.10/1ST</t>
+        </is>
+      </c>
+      <c r="J151" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="M151" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'buero-papeterie', 'druckerpatronen', 'hp']</t>
+          <t>['haushalt-tier', 'buero-papeterie', 'bueromaterial', 'radiergummis']</t>
         </is>
       </c>
       <c r="N151" t="inlineStr">
         <is>
-          <t>HP Tintenpatrone 305XL schwarz 24.95 Schweizer Franken</t>
+          <t>Läufer Radiergummi Soft 240 2 Stück 2.20 Schweizer Franken</t>
         </is>
       </c>
       <c r="O151" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>3887749</t>
+          <t>5754521</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Läufer Radiergummi Soft 240 2 Stück</t>
+          <t>Oecoplan Kuverts und Doppelkarten A6/C6 ivoire 10 Stk.</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/buero-papeterie/bueromaterial/radiergummis/laeufer-radiergummi-soft-240-2-stueck/p/3887749</t>
+          <t>/de/haushalt-tier/buero-papeterie/notizzettel-karteikarten/karteikarten/oecoplan-kuverts-und-doppelkarten-a6c6-ivoire-10-stk/p/5754521</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>2ST</t>
-        </is>
-      </c>
-      <c r="E152" t="inlineStr"/>
+          <t>10ST</t>
+        </is>
+      </c>
+      <c r="E152" t="n">
+        <v>2</v>
+      </c>
       <c r="F152" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>Läufer</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>2.20</t>
+          <t>2.10</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>1.10/1ST</t>
+          <t>0.21/1ST</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -9791,7 +9793,7 @@
       </c>
       <c r="K152" t="inlineStr">
         <is>
-          <t>1.10</t>
+          <t>0.21</t>
         </is>
       </c>
       <c r="L152" t="inlineStr">
@@ -9801,161 +9803,163 @@
       </c>
       <c r="M152" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'buero-papeterie', 'bueromaterial', 'radiergummis']</t>
+          <t>['haushalt-tier', 'buero-papeterie', 'notizzettel-karteikarten', 'karteikarten']</t>
         </is>
       </c>
       <c r="N152" t="inlineStr">
         <is>
-          <t>Läufer Radiergummi Soft 240 2 Stück 2.20 Schweizer Franken</t>
+          <t>Oecoplan Kuverts und Doppelkarten A6/C6 ivoire 10 Stk. 50% Aktion 2.10 Schweizer Franken statt 4.20 Schweizer Franken</t>
         </is>
       </c>
       <c r="O152" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>5754521</t>
+          <t>4381548</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Oecoplan Kuverts und Doppelkarten A6/C6 ivoire 10 Stk.</t>
+          <t>Post-it® Mini Cube</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/buero-papeterie/notizzettel-karteikarten/karteikarten/oecoplan-kuverts-und-doppelkarten-a6c6-ivoire-10-stk/p/5754521</t>
-        </is>
-      </c>
-      <c r="D153" t="inlineStr">
-        <is>
-          <t>10ST</t>
-        </is>
-      </c>
-      <c r="E153" t="n">
-        <v>2</v>
-      </c>
+          <t>/de/haushalt-tier/buero-papeterie/notizzettel-karteikarten/haftnotizen/post-it-mini-cube/p/4381548</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr"/>
+      <c r="E153" t="inlineStr"/>
       <c r="F153" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Post-it</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>2.10</t>
-        </is>
-      </c>
-      <c r="I153" t="inlineStr">
-        <is>
-          <t>0.21/1ST</t>
-        </is>
-      </c>
-      <c r="J153" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>0.21</t>
-        </is>
-      </c>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="I153" t="inlineStr"/>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
       <c r="M153" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'buero-papeterie', 'notizzettel-karteikarten', 'karteikarten']</t>
+          <t>['haushalt-tier', 'buero-papeterie', 'notizzettel-karteikarten', 'haftnotizen']</t>
         </is>
       </c>
       <c r="N153" t="inlineStr">
         <is>
-          <t>Oecoplan Kuverts und Doppelkarten A6/C6 ivoire 10 Stk. 50% Aktion 2.10 Schweizer Franken statt 4.20 Schweizer Franken</t>
+          <t>Post-it® Mini Cube 5.20 Schweizer Franken</t>
         </is>
       </c>
       <c r="O153" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>4381548</t>
+          <t>4260401</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Post-it® Mini Cube</t>
+          <t>Qualité&amp;amp;Prix Quick-Beutel 20  Stk. 80x90 mm</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/buero-papeterie/notizzettel-karteikarten/haftnotizen/post-it-mini-cube/p/4381548</t>
-        </is>
-      </c>
-      <c r="D154" t="inlineStr"/>
+          <t>/de/haushalt-tier/buero-papeterie/geschenkverpackung-baender/geschenkbeutel/qualite-prix-quick-beutel-20-stk-80x90-mm/p/4260401</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>20ST</t>
+        </is>
+      </c>
       <c r="E154" t="inlineStr"/>
       <c r="F154" t="n">
         <v>0</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>Post-it</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>5.20</t>
-        </is>
-      </c>
-      <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="I154" t="inlineStr">
+        <is>
+          <t>0.10/1ST</t>
+        </is>
+      </c>
+      <c r="J154" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="M154" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'buero-papeterie', 'notizzettel-karteikarten', 'haftnotizen']</t>
+          <t>['haushalt-tier', 'buero-papeterie', 'geschenkverpackung-baender', 'geschenkbeutel']</t>
         </is>
       </c>
       <c r="N154" t="inlineStr">
         <is>
-          <t>Post-it® Mini Cube 5.20 Schweizer Franken</t>
+          <t>Qualité&amp;amp;Prix Quick-Beutel 20  Stk. 80x90 mm 1.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O154" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>4132333</t>
+          <t>4039538</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Qualité&amp;amp;Prix Klebeband CL 19 mm x 33 m + Abroller</t>
+          <t>Qualité&amp;amp;Prix Schulhefte E6 4mm kariert ohne Rahmen 2 Stk.</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/buero-papeterie/kleber-schnur/klebeband/qualite-prix-klebeband-cl-19-mm-x-33-m--abroller/p/4132333</t>
-        </is>
-      </c>
-      <c r="D155" t="inlineStr"/>
+          <t>/de/haushalt-tier/buero-papeterie/papier-bloecke-hefte/hefte/qualite-prix-schulhefte-e6-4mm-kariert-ohne-rahmen-2-stk/p/4039538</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>2ST</t>
+        </is>
+      </c>
       <c r="E155" t="inlineStr"/>
       <c r="F155" t="n">
         <v>0</v>
@@ -9967,131 +9971,127 @@
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>2.95</t>
-        </is>
-      </c>
-      <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="I155" t="inlineStr">
+        <is>
+          <t>0.80/1ST</t>
+        </is>
+      </c>
+      <c r="J155" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="M155" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'buero-papeterie', 'kleber-schnur', 'klebeband']</t>
+          <t>['haushalt-tier', 'buero-papeterie', 'papier-bloecke-hefte', 'hefte']</t>
         </is>
       </c>
       <c r="N155" t="inlineStr">
         <is>
-          <t>Qualité&amp;amp;Prix Klebeband CL 19 mm x 33 m + Abroller 2.95 Schweizer Franken</t>
+          <t>Qualité&amp;amp;Prix Schulhefte E6 4mm kariert ohne Rahmen 2 Stk. 1.60 Schweizer Franken</t>
         </is>
       </c>
       <c r="O155" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>4039538</t>
+          <t>4064738</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Qualité&amp;amp;Prix Schulhefte E6 4mm kariert ohne Rahmen 2 Stk.</t>
+          <t>CANON Patrone PGI-525 schwarz</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/buero-papeterie/papier-bloecke-hefte/hefte/qualite-prix-schulhefte-e6-4mm-kariert-ohne-rahmen-2-stk/p/4039538</t>
-        </is>
-      </c>
-      <c r="D156" t="inlineStr">
-        <is>
-          <t>2ST</t>
-        </is>
-      </c>
-      <c r="E156" t="inlineStr"/>
+          <t>/de/haushalt-tier/buero-papeterie/druckerpatronen/canon/canon-patrone-pgi-525-schwarz/p/4064738</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr"/>
+      <c r="E156" t="n">
+        <v>2</v>
+      </c>
       <c r="F156" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Epson</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>1.60</t>
-        </is>
-      </c>
-      <c r="I156" t="inlineStr">
-        <is>
-          <t>0.80/1ST</t>
-        </is>
-      </c>
-      <c r="J156" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>0.80</t>
-        </is>
-      </c>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>21.95</t>
+        </is>
+      </c>
+      <c r="I156" t="inlineStr"/>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
       <c r="M156" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'buero-papeterie', 'papier-bloecke-hefte', 'hefte']</t>
+          <t>['haushalt-tier', 'buero-papeterie', 'druckerpatronen', 'canon']</t>
         </is>
       </c>
       <c r="N156" t="inlineStr">
         <is>
-          <t>Qualité&amp;amp;Prix Schulhefte E6 4mm kariert ohne Rahmen 2 Stk. 1.60 Schweizer Franken</t>
+          <t>CANON Patrone PGI-525 schwarz 21.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O156" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>4064738</t>
+          <t>3650572</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>CANON Patrone PGI-525 schwarz</t>
+          <t>Dokumententasche Easy A4 KolmaFlex</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/buero-papeterie/druckerpatronen/canon/canon-patrone-pgi-525-schwarz/p/4064738</t>
+          <t>/de/haushalt-tier/buero-papeterie/mappen-huellen-planer/mappen/dokumententasche-easy-a4-kolmaflex/p/3650572</t>
         </is>
       </c>
       <c r="D157" t="inlineStr"/>
-      <c r="E157" t="n">
-        <v>2</v>
-      </c>
+      <c r="E157" t="inlineStr"/>
       <c r="F157" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>Epson</t>
+          <t>KOLMA</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>21.95</t>
+          <t>2.25</t>
         </is>
       </c>
       <c r="I157" t="inlineStr"/>
@@ -10100,34 +10100,34 @@
       <c r="L157" t="inlineStr"/>
       <c r="M157" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'buero-papeterie', 'druckerpatronen', 'canon']</t>
+          <t>['haushalt-tier', 'buero-papeterie', 'mappen-huellen-planer', 'mappen']</t>
         </is>
       </c>
       <c r="N157" t="inlineStr">
         <is>
-          <t>CANON Patrone PGI-525 schwarz 21.95 Schweizer Franken</t>
+          <t>Dokumententasche Easy A4 KolmaFlex 2.25 Schweizer Franken</t>
         </is>
       </c>
       <c r="O157" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>3650572</t>
+          <t>6029332</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Dokumententasche Easy A4 KolmaFlex</t>
+          <t>HP Tintenpatrone 303  schwarz EnvyPhoto623</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/buero-papeterie/mappen-huellen-planer/mappen/dokumententasche-easy-a4-kolmaflex/p/3650572</t>
+          <t>/de/haushalt-tier/buero-papeterie/druckerpatronen/hp/hp-tintenpatrone-303-schwarz-envyphoto623/p/6029332</t>
         </is>
       </c>
       <c r="D158" t="inlineStr"/>
@@ -10137,12 +10137,12 @@
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>KOLMA</t>
+          <t>HP</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>2.25</t>
+          <t>22.95</t>
         </is>
       </c>
       <c r="I158" t="inlineStr"/>
@@ -10151,34 +10151,34 @@
       <c r="L158" t="inlineStr"/>
       <c r="M158" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'buero-papeterie', 'mappen-huellen-planer', 'mappen']</t>
+          <t>['haushalt-tier', 'buero-papeterie', 'druckerpatronen', 'hp']</t>
         </is>
       </c>
       <c r="N158" t="inlineStr">
         <is>
-          <t>Dokumententasche Easy A4 KolmaFlex 2.25 Schweizer Franken</t>
+          <t>HP Tintenpatrone 303  schwarz EnvyPhoto623 22.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O158" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>6029332</t>
+          <t>6825507</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>HP Tintenpatrone 303  schwarz EnvyPhoto623</t>
+          <t>HP Tintenpatrone 305 black &amp;amp; color</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/buero-papeterie/druckerpatronen/hp/hp-tintenpatrone-303-schwarz-envyphoto623/p/6029332</t>
+          <t>/de/haushalt-tier/buero-papeterie/druckerpatronen/hp/hp-tintenpatrone-305-black-color/p/6825507</t>
         </is>
       </c>
       <c r="D159" t="inlineStr"/>
@@ -10193,7 +10193,7 @@
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>22.95</t>
+          <t>24.95</t>
         </is>
       </c>
       <c r="I159" t="inlineStr"/>
@@ -10207,35 +10207,37 @@
       </c>
       <c r="N159" t="inlineStr">
         <is>
-          <t>HP Tintenpatrone 303  schwarz EnvyPhoto623 22.95 Schweizer Franken</t>
+          <t>HP Tintenpatrone 305 black &amp;amp; color 24.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O159" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>6825507</t>
+          <t>6028949</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>HP Tintenpatrone 305 black &amp;amp; color</t>
+          <t>HP Tintenpatrone 903XL schwarz</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/buero-papeterie/druckerpatronen/hp/hp-tintenpatrone-305-black-color/p/6825507</t>
+          <t>/de/haushalt-tier/buero-papeterie/druckerpatronen/hp/hp-tintenpatrone-903xl-schwarz/p/6028949</t>
         </is>
       </c>
       <c r="D160" t="inlineStr"/>
-      <c r="E160" t="inlineStr"/>
+      <c r="E160" t="n">
+        <v>1</v>
+      </c>
       <c r="F160" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G160" t="inlineStr">
         <is>
@@ -10244,7 +10246,7 @@
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>24.95</t>
+          <t>44.95</t>
         </is>
       </c>
       <c r="I160" t="inlineStr"/>
@@ -10258,87 +10260,105 @@
       </c>
       <c r="N160" t="inlineStr">
         <is>
-          <t>HP Tintenpatrone 305 black &amp;amp; color 24.95 Schweizer Franken</t>
+          <t>HP Tintenpatrone 903XL schwarz 44.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O160" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>6028949</t>
+          <t>6393262</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>HP Tintenpatrone 903XL schwarz</t>
+          <t>Pelikan Pinsel 5 Stück</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/buero-papeterie/druckerpatronen/hp/hp-tintenpatrone-903xl-schwarz/p/6028949</t>
-        </is>
-      </c>
-      <c r="D161" t="inlineStr"/>
-      <c r="E161" t="n">
-        <v>1</v>
-      </c>
+          <t>/de/haushalt-tier/buero-papeterie/stifte-malfarben/fingerfarben-malkasten/pelikan-pinsel-5-stueck/p/6393262</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>3ST</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr"/>
       <c r="F161" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>HP</t>
+          <t>Pelikan</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>44.95</t>
-        </is>
-      </c>
-      <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="I161" t="inlineStr">
+        <is>
+          <t>1.32/1ST</t>
+        </is>
+      </c>
+      <c r="J161" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="M161" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'buero-papeterie', 'druckerpatronen', 'hp']</t>
+          <t>['haushalt-tier', 'buero-papeterie', 'stifte-malfarben', 'fingerfarben-malkasten']</t>
         </is>
       </c>
       <c r="N161" t="inlineStr">
         <is>
-          <t>HP Tintenpatrone 903XL schwarz 44.95 Schweizer Franken</t>
+          <t>Pelikan Pinsel 5 Stück 3.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O161" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>6393262</t>
+          <t>3667784</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Pelikan Pinsel 5 Stück</t>
+          <t>Qualité&amp;amp;Prix Kartonregister weiss A4 12-tlg</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/buero-papeterie/stifte-malfarben/fingerfarben-malkasten/pelikan-pinsel-5-stueck/p/6393262</t>
+          <t>/de/haushalt-tier/buero-papeterie/ordner-register/register/qualite-prix-kartonregister-weiss-a4-12-tlg/p/3667784</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>3ST</t>
+          <t>1ST</t>
         </is>
       </c>
       <c r="E162" t="inlineStr"/>
@@ -10347,17 +10367,17 @@
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>Pelikan</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>3.25</t>
         </is>
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>1.32/1ST</t>
+          <t>3.25/1ST</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
@@ -10367,7 +10387,7 @@
       </c>
       <c r="K162" t="inlineStr">
         <is>
-          <t>1.32</t>
+          <t>3.25</t>
         </is>
       </c>
       <c r="L162" t="inlineStr">
@@ -10377,41 +10397,37 @@
       </c>
       <c r="M162" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'buero-papeterie', 'stifte-malfarben', 'fingerfarben-malkasten']</t>
+          <t>['haushalt-tier', 'buero-papeterie', 'ordner-register', 'register']</t>
         </is>
       </c>
       <c r="N162" t="inlineStr">
         <is>
-          <t>Pelikan Pinsel 5 Stück 3.95 Schweizer Franken</t>
+          <t>Qualité&amp;amp;Prix Kartonregister weiss A4 12-tlg 3.25 Schweizer Franken</t>
         </is>
       </c>
       <c r="O162" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>3667784</t>
+          <t>4132333</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Qualité&amp;amp;Prix Kartonregister weiss A4 12-tlg</t>
+          <t>Qualité&amp;amp;Prix Klebeband CL 19 mm x 33 m + Abroller</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/buero-papeterie/ordner-register/register/qualite-prix-kartonregister-weiss-a4-12-tlg/p/3667784</t>
-        </is>
-      </c>
-      <c r="D163" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>/de/haushalt-tier/buero-papeterie/kleber-schnur/klebeband/qualite-prix-klebeband-cl-19-mm-x-33-m--abroller/p/4132333</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr"/>
       <c r="E163" t="inlineStr"/>
       <c r="F163" t="n">
         <v>0</v>
@@ -10423,42 +10439,26 @@
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>3.25</t>
-        </is>
-      </c>
-      <c r="I163" t="inlineStr">
-        <is>
-          <t>3.25/1ST</t>
-        </is>
-      </c>
-      <c r="J163" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>3.25</t>
-        </is>
-      </c>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="I163" t="inlineStr"/>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr"/>
       <c r="M163" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'buero-papeterie', 'ordner-register', 'register']</t>
+          <t>['haushalt-tier', 'buero-papeterie', 'kleber-schnur', 'klebeband']</t>
         </is>
       </c>
       <c r="N163" t="inlineStr">
         <is>
-          <t>Qualité&amp;amp;Prix Kartonregister weiss A4 12-tlg 3.25 Schweizer Franken</t>
+          <t>Qualité&amp;amp;Prix Klebeband CL 19 mm x 33 m + Abroller 2.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O163" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
@@ -10509,7 +10509,7 @@
       </c>
       <c r="O164" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
@@ -10560,7 +10560,7 @@
       </c>
       <c r="O165" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
@@ -10611,7 +10611,7 @@
       </c>
       <c r="O166" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
@@ -10662,48 +10662,50 @@
       </c>
       <c r="O167" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>4492567</t>
+          <t>3268642</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Karteikarten A8 liniert farbig 180g 200B</t>
+          <t>Giotto Fasermaler Turbo Color 36 Stück</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/buero-papeterie/notizzettel-karteikarten/karteikarten/karteikarten-a8-liniert-farbig-180g-200b/p/4492567</t>
+          <t>/de/haushalt-tier/buero-papeterie/stifte-malfarben/filzstifte/giotto-fasermaler-turbo-color-36-stueck/p/3268642</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>200ST</t>
-        </is>
-      </c>
-      <c r="E168" t="inlineStr"/>
+          <t>36ST</t>
+        </is>
+      </c>
+      <c r="E168" t="n">
+        <v>1</v>
+      </c>
       <c r="F168" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Giotto</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>2.60</t>
+          <t>10.95</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>0.01/1ST</t>
+          <t>0.30/1ST</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
@@ -10713,7 +10715,7 @@
       </c>
       <c r="K168" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.30</t>
         </is>
       </c>
       <c r="L168" t="inlineStr">
@@ -10723,39 +10725,39 @@
       </c>
       <c r="M168" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'buero-papeterie', 'notizzettel-karteikarten', 'karteikarten']</t>
+          <t>['haushalt-tier', 'buero-papeterie', 'stifte-malfarben', 'filzstifte']</t>
         </is>
       </c>
       <c r="N168" t="inlineStr">
         <is>
-          <t>Karteikarten A8 liniert farbig 180g 200B 2.60 Schweizer Franken</t>
+          <t>Giotto Fasermaler Turbo Color 36 Stück 10.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O168" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>3891549</t>
+          <t>4492567</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Pelikan Tintenpatronen 4001 königsblau</t>
+          <t>Karteikarten A8 liniert farbig 180g 200B</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/buero-papeterie/stifte-malfarben/pelikan-tintenpatronen-4001-koenigsblau/p/3891549</t>
+          <t>/de/haushalt-tier/buero-papeterie/notizzettel-karteikarten/karteikarten/karteikarten-a8-liniert-farbig-180g-200b/p/4492567</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>1ST</t>
+          <t>200ST</t>
         </is>
       </c>
       <c r="E169" t="inlineStr"/>
@@ -10764,17 +10766,17 @@
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>Pelikan</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>2.60</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>2.95/1ST</t>
+          <t>0.01/1ST</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
@@ -10784,7 +10786,7 @@
       </c>
       <c r="K169" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="L169" t="inlineStr">
@@ -10794,170 +10796,168 @@
       </c>
       <c r="M169" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'buero-papeterie', 'stifte-malfarben']</t>
+          <t>['haushalt-tier', 'buero-papeterie', 'notizzettel-karteikarten', 'karteikarten']</t>
         </is>
       </c>
       <c r="N169" t="inlineStr">
         <is>
-          <t>Pelikan Tintenpatronen 4001 königsblau 2.95 Schweizer Franken</t>
+          <t>Karteikarten A8 liniert farbig 180g 200B 2.60 Schweizer Franken</t>
         </is>
       </c>
       <c r="O169" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>5756006</t>
+          <t>3891549</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Pritt Alleskleber</t>
+          <t>Pelikan Tintenpatronen 4001 königsblau</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/buero-papeterie/kleber-schnur/kleber/pritt-alleskleber/p/5756006</t>
-        </is>
-      </c>
-      <c r="D170" t="inlineStr"/>
-      <c r="E170" t="n">
-        <v>1</v>
-      </c>
+          <t>/de/haushalt-tier/buero-papeterie/stifte-malfarben/pelikan-tintenpatronen-4001-koenigsblau/p/3891549</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr"/>
       <c r="F170" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>Pritt</t>
+          <t>Pelikan</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>4.25</t>
-        </is>
-      </c>
-      <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="I170" t="inlineStr">
+        <is>
+          <t>2.95/1ST</t>
+        </is>
+      </c>
+      <c r="J170" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="M170" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'buero-papeterie', 'kleber-schnur', 'kleber']</t>
+          <t>['haushalt-tier', 'buero-papeterie', 'stifte-malfarben']</t>
         </is>
       </c>
       <c r="N170" t="inlineStr">
         <is>
-          <t>Pritt Alleskleber 4.25 Schweizer Franken</t>
+          <t>Pelikan Tintenpatronen 4001 königsblau 2.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O170" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>6583124</t>
+          <t>5756006</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Prix Garantie Büroklammern 32mm 350 Stück</t>
+          <t>Pritt Alleskleber</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/buero-papeterie/bueromaterial/bueroklammern/prix-garantie-bueroklammern-32mm-350-stueck/p/6583124</t>
-        </is>
-      </c>
-      <c r="D171" t="inlineStr">
-        <is>
-          <t>350ST</t>
-        </is>
-      </c>
-      <c r="E171" t="inlineStr"/>
+          <t>/de/haushalt-tier/buero-papeterie/kleber-schnur/kleber/pritt-alleskleber/p/5756006</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr"/>
+      <c r="E171" t="n">
+        <v>1</v>
+      </c>
       <c r="F171" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Pritt</t>
         </is>
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>4.20</t>
-        </is>
-      </c>
-      <c r="I171" t="inlineStr">
-        <is>
-          <t>0.01/1ST</t>
-        </is>
-      </c>
-      <c r="J171" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="I171" t="inlineStr"/>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr"/>
       <c r="M171" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'buero-papeterie', 'bueromaterial', 'bueroklammern']</t>
+          <t>['haushalt-tier', 'buero-papeterie', 'kleber-schnur', 'kleber']</t>
         </is>
       </c>
       <c r="N171" t="inlineStr">
         <is>
-          <t>Prix Garantie Büroklammern 32mm 350 Stück 4.20 Schweizer Franken</t>
+          <t>Pritt Alleskleber 4.25 Schweizer Franken</t>
         </is>
       </c>
       <c r="O171" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>3664615</t>
+          <t>6583124</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Qualité&amp;amp;Prix Kuvert C5 Fenster rechts 100 Stück</t>
+          <t>Prix Garantie Büroklammern 32mm 350 Stück</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/buero-papeterie/karten-kuverts/c5-und-c6/qualite-prix-kuvert-c5-fenster-rechts-100-stueck/p/3664615</t>
+          <t>/de/haushalt-tier/buero-papeterie/bueromaterial/bueroklammern/prix-garantie-bueroklammern-32mm-350-stueck/p/6583124</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>100ST</t>
-        </is>
-      </c>
-      <c r="E172" t="n">
-        <v>1</v>
-      </c>
+          <t>350ST</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr"/>
       <c r="F172" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G172" t="inlineStr">
         <is>
@@ -10966,12 +10966,12 @@
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>4.20</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>0.05/1ST</t>
+          <t>0.01/1ST</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -10981,7 +10981,7 @@
       </c>
       <c r="K172" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="L172" t="inlineStr">
@@ -10991,42 +10991,46 @@
       </c>
       <c r="M172" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'buero-papeterie', 'karten-kuverts', 'c5-und-c6']</t>
+          <t>['haushalt-tier', 'buero-papeterie', 'bueromaterial', 'bueroklammern']</t>
         </is>
       </c>
       <c r="N172" t="inlineStr">
         <is>
-          <t>Qualité&amp;amp;Prix Kuvert C5 Fenster rechts 100 Stück 50% Aktion 4.95 Schweizer Franken statt 9.95 Schweizer Franken</t>
+          <t>Prix Garantie Büroklammern 32mm 350 Stück 4.20 Schweizer Franken</t>
         </is>
       </c>
       <c r="O172" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>3625198</t>
+          <t>3664615</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Qualité&amp;amp;Prix Zettelbox weiss 750 Blatt</t>
+          <t>Qualité&amp;amp;Prix Kuvert C5 Fenster rechts 100 Stück</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>/de/inspiration-geschenke/saisonale-promotionen/buerobedarf/qualite-prix-zettelbox-weiss-750-blatt/p/3625198</t>
-        </is>
-      </c>
-      <c r="D173" t="inlineStr"/>
+          <t>/de/haushalt-tier/buero-papeterie/karten-kuverts/c5-und-c6/qualite-prix-kuvert-c5-fenster-rechts-100-stueck/p/3664615</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>100ST</t>
+        </is>
+      </c>
       <c r="E173" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F173" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
@@ -11035,56 +11039,76 @@
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>6.50</t>
-        </is>
-      </c>
-      <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="I173" t="inlineStr">
+        <is>
+          <t>0.05/1ST</t>
+        </is>
+      </c>
+      <c r="J173" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="M173" t="inlineStr">
         <is>
-          <t>['inspiration-geschenke', 'saisonale-promotionen', 'buerobedarf']</t>
+          <t>['haushalt-tier', 'buero-papeterie', 'karten-kuverts', 'c5-und-c6']</t>
         </is>
       </c>
       <c r="N173" t="inlineStr">
         <is>
-          <t>Qualité&amp;amp;Prix Zettelbox weiss 750 Blatt 6.50 Schweizer Franken</t>
+          <t>Qualité&amp;amp;Prix Kuvert C5 Fenster rechts 100 Stück 50% Aktion 4.95 Schweizer Franken statt 9.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O173" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>3844989</t>
+          <t>3625198</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Seidenpapier gelb 50x70cm 25 Stück</t>
+          <t>Qualité&amp;amp;Prix Zettelbox weiss 750 Blatt</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/buero-papeterie/geschenkverpackung-baender/geschenkpapier/seidenpapier-gelb-50x70cm-25-stueck/p/3844989</t>
+          <t>/de/inspiration-geschenke/saisonale-promotionen/buerobedarf/qualite-prix-zettelbox-weiss-750-blatt/p/3625198</t>
         </is>
       </c>
       <c r="D174" t="inlineStr"/>
       <c r="E174" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F174" t="n">
-        <v>5</v>
-      </c>
-      <c r="G174" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>Coop</t>
+        </is>
+      </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>6.50</t>
         </is>
       </c>
       <c r="I174" t="inlineStr"/>
@@ -11093,49 +11117,47 @@
       <c r="L174" t="inlineStr"/>
       <c r="M174" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'buero-papeterie', 'geschenkverpackung-baender', 'geschenkpapier']</t>
+          <t>['inspiration-geschenke', 'saisonale-promotionen', 'buerobedarf']</t>
         </is>
       </c>
       <c r="N174" t="inlineStr">
         <is>
-          <t>Seidenpapier gelb 50x70cm 25 Stück 4.95 Schweizer Franken</t>
+          <t>Qualité&amp;amp;Prix Zettelbox weiss 750 Blatt 6.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="O174" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>4416212</t>
+          <t>3844989</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Zirkel Set gross</t>
+          <t>Seidenpapier gelb 50x70cm 25 Stück</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/buero-papeterie/bueromaterial/diverses/zirkel-set-gross/p/4416212</t>
+          <t>/de/haushalt-tier/buero-papeterie/geschenkverpackung-baender/geschenkpapier/seidenpapier-gelb-50x70cm-25-stueck/p/3844989</t>
         </is>
       </c>
       <c r="D175" t="inlineStr"/>
-      <c r="E175" t="inlineStr"/>
+      <c r="E175" t="n">
+        <v>1</v>
+      </c>
       <c r="F175" t="n">
-        <v>0</v>
-      </c>
-      <c r="G175" t="inlineStr">
-        <is>
-          <t>Coop</t>
-        </is>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="G175" t="inlineStr"/>
       <c r="H175" t="inlineStr">
         <is>
-          <t>9.95</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="I175" t="inlineStr"/>
@@ -11144,34 +11166,34 @@
       <c r="L175" t="inlineStr"/>
       <c r="M175" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'buero-papeterie', 'bueromaterial', 'diverses']</t>
+          <t>['haushalt-tier', 'buero-papeterie', 'geschenkverpackung-baender', 'geschenkpapier']</t>
         </is>
       </c>
       <c r="N175" t="inlineStr">
         <is>
-          <t>Zirkel Set gross 9.95 Schweizer Franken</t>
+          <t>Seidenpapier gelb 50x70cm 25 Stück 4.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O175" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>4660171</t>
+          <t>4416212</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Ausweishüllen A5 faltbar PP 3 Stk.</t>
+          <t>Zirkel Set gross</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/buero-papeterie/mappen-huellen-planer/huellen/ausweishuellen-a5-faltbar-pp-3-stk/p/4660171</t>
+          <t>/de/haushalt-tier/buero-papeterie/bueromaterial/diverses/zirkel-set-gross/p/4416212</t>
         </is>
       </c>
       <c r="D176" t="inlineStr"/>
@@ -11186,7 +11208,7 @@
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>1.85</t>
+          <t>9.95</t>
         </is>
       </c>
       <c r="I176" t="inlineStr"/>
@@ -11195,90 +11217,68 @@
       <c r="L176" t="inlineStr"/>
       <c r="M176" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'buero-papeterie', 'mappen-huellen-planer', 'huellen']</t>
+          <t>['haushalt-tier', 'buero-papeterie', 'bueromaterial', 'diverses']</t>
         </is>
       </c>
       <c r="N176" t="inlineStr">
         <is>
-          <t>Ausweishüllen A5 faltbar PP 3 Stk. 50% Aktion 1.85 Schweizer Franken statt 3.75 Schweizer Franken</t>
+          <t>Zirkel Set gross 9.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O176" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>3268642</t>
+          <t>4660171</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Giotto Fasermaler Turbo Color 36 Stück</t>
+          <t>Ausweishüllen A5 faltbar PP 3 Stk.</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/buero-papeterie/stifte-malfarben/filzstifte/giotto-fasermaler-turbo-color-36-stueck/p/3268642</t>
-        </is>
-      </c>
-      <c r="D177" t="inlineStr">
-        <is>
-          <t>36ST</t>
-        </is>
-      </c>
-      <c r="E177" t="n">
-        <v>1</v>
-      </c>
+          <t>/de/haushalt-tier/buero-papeterie/mappen-huellen-planer/huellen/ausweishuellen-a5-faltbar-pp-3-stk/p/4660171</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr"/>
+      <c r="E177" t="inlineStr"/>
       <c r="F177" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>Giotto</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>10.95</t>
-        </is>
-      </c>
-      <c r="I177" t="inlineStr">
-        <is>
-          <t>0.30/1ST</t>
-        </is>
-      </c>
-      <c r="J177" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>0.30</t>
-        </is>
-      </c>
-      <c r="L177" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="I177" t="inlineStr"/>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="inlineStr"/>
       <c r="M177" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'buero-papeterie', 'stifte-malfarben', 'filzstifte']</t>
+          <t>['haushalt-tier', 'buero-papeterie', 'mappen-huellen-planer', 'huellen']</t>
         </is>
       </c>
       <c r="N177" t="inlineStr">
         <is>
-          <t>Giotto Fasermaler Turbo Color 36 Stück 10.95 Schweizer Franken</t>
+          <t>Ausweishüllen A5 faltbar PP 3 Stk. 50% Aktion 1.85 Schweizer Franken statt 3.75 Schweizer Franken</t>
         </is>
       </c>
       <c r="O177" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
@@ -11329,7 +11329,7 @@
       </c>
       <c r="O178" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
@@ -11382,7 +11382,7 @@
       </c>
       <c r="O179" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
@@ -11435,7 +11435,7 @@
       </c>
       <c r="O180" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
@@ -11486,7 +11486,7 @@
       </c>
       <c r="O181" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
@@ -11559,7 +11559,7 @@
       </c>
       <c r="O182" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
@@ -11610,7 +11610,7 @@
       </c>
       <c r="O183" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
@@ -11661,7 +11661,7 @@
       </c>
       <c r="O184" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
@@ -11712,7 +11712,7 @@
       </c>
       <c r="O185" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
@@ -11783,7 +11783,7 @@
       </c>
       <c r="O186" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
@@ -11836,7 +11836,7 @@
       </c>
       <c r="O187" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
@@ -11889,7 +11889,7 @@
       </c>
       <c r="O188" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
@@ -11940,29 +11940,29 @@
       </c>
       <c r="O189" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>4299585</t>
+          <t>5754526</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Pilot Tintenroller Frixion Ball Ersatz-Minen hellblau 3 Stück</t>
+          <t>Oecoplan Kuverts und Doppelkarten A6/C6 rot 10 Stk.</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/buero-papeterie/stifte-malfarben/weitere-stifte/pilot-tintenroller-frixion-ball-ersatz-minen-hellblau-3-stueck/p/4299585</t>
+          <t>/de/haushalt-tier/buero-papeterie/notizzettel-karteikarten/karteikarten/oecoplan-kuverts-und-doppelkarten-a6c6-rot-10-stk/p/5754526</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>3ST</t>
+          <t>10ST</t>
         </is>
       </c>
       <c r="E190" t="inlineStr"/>
@@ -11971,17 +11971,17 @@
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>Pilot</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>9.50</t>
+          <t>2.10</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>3.17/1ST</t>
+          <t>0.21/1ST</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -11991,7 +11991,7 @@
       </c>
       <c r="K190" t="inlineStr">
         <is>
-          <t>3.17</t>
+          <t>0.21</t>
         </is>
       </c>
       <c r="L190" t="inlineStr">
@@ -12001,39 +12001,39 @@
       </c>
       <c r="M190" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'buero-papeterie', 'stifte-malfarben', 'weitere-stifte']</t>
+          <t>['haushalt-tier', 'buero-papeterie', 'notizzettel-karteikarten', 'karteikarten']</t>
         </is>
       </c>
       <c r="N190" t="inlineStr">
         <is>
-          <t>Pilot Tintenroller Frixion Ball Ersatz-Minen hellblau 3 Stück 9.50 Schweizer Franken</t>
+          <t>Oecoplan Kuverts und Doppelkarten A6/C6 rot 10 Stk. 50% Aktion 2.10 Schweizer Franken statt 4.20 Schweizer Franken</t>
         </is>
       </c>
       <c r="O190" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>4671290</t>
+          <t>4299585</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Qualité&amp;amp;Prix 10 Zeigetaschen A4 100my</t>
+          <t>Pilot Tintenroller Frixion Ball Ersatz-Minen hellblau 3 Stück</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/buero-papeterie/mappen-huellen-planer/mappen/qualite-prix-10-zeigetaschen-a4-100my/p/4671290</t>
+          <t>/de/haushalt-tier/buero-papeterie/stifte-malfarben/weitere-stifte/pilot-tintenroller-frixion-ball-ersatz-minen-hellblau-3-stueck/p/4299585</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>10ST</t>
+          <t>3ST</t>
         </is>
       </c>
       <c r="E191" t="inlineStr"/>
@@ -12042,17 +12042,17 @@
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Pilot</t>
         </is>
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>9.50</t>
         </is>
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>0.20/1ST</t>
+          <t>3.17/1ST</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -12062,7 +12062,7 @@
       </c>
       <c r="K191" t="inlineStr">
         <is>
-          <t>0.20</t>
+          <t>3.17</t>
         </is>
       </c>
       <c r="L191" t="inlineStr">
@@ -12072,37 +12072,41 @@
       </c>
       <c r="M191" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'buero-papeterie', 'mappen-huellen-planer', 'mappen']</t>
+          <t>['haushalt-tier', 'buero-papeterie', 'stifte-malfarben', 'weitere-stifte']</t>
         </is>
       </c>
       <c r="N191" t="inlineStr">
         <is>
-          <t>Qualité&amp;amp;Prix 10 Zeigetaschen A4 100my 1.95 Schweizer Franken</t>
+          <t>Pilot Tintenroller Frixion Ball Ersatz-Minen hellblau 3 Stück 9.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="O191" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>4459893</t>
+          <t>4671290</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Qualité&amp;amp;Prix Brieföffner</t>
+          <t>Qualité&amp;amp;Prix 10 Zeigetaschen A4 100my</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/buero-papeterie/bueromaterial/diverses/qualite-prix-briefoeffner/p/4459893</t>
-        </is>
-      </c>
-      <c r="D192" t="inlineStr"/>
+          <t>/de/haushalt-tier/buero-papeterie/mappen-huellen-planer/mappen/qualite-prix-10-zeigetaschen-a4-100my/p/4671290</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>10ST</t>
+        </is>
+      </c>
       <c r="E192" t="inlineStr"/>
       <c r="F192" t="n">
         <v>0</v>
@@ -12114,55 +12118,65 @@
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>1.90</t>
-        </is>
-      </c>
-      <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="I192" t="inlineStr">
+        <is>
+          <t>0.20/1ST</t>
+        </is>
+      </c>
+      <c r="J192" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="L192" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="M192" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'buero-papeterie', 'bueromaterial', 'diverses']</t>
+          <t>['haushalt-tier', 'buero-papeterie', 'mappen-huellen-planer', 'mappen']</t>
         </is>
       </c>
       <c r="N192" t="inlineStr">
         <is>
-          <t>Qualité&amp;amp;Prix Brieföffner 1.90 Schweizer Franken</t>
+          <t>Qualité&amp;amp;Prix 10 Zeigetaschen A4 100my 1.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O192" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>3732922</t>
+          <t>4459893</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Qualité&amp;amp;Prix Minenbleistifte 0.7 mm 2 Stk.</t>
+          <t>Qualité&amp;amp;Prix Brieföffner</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/buero-papeterie/stifte-malfarben/bleistifte-minen/qualite-prix-minenbleistifte-07-mm-2-stk/p/3732922</t>
-        </is>
-      </c>
-      <c r="D193" t="inlineStr">
-        <is>
-          <t>2ST</t>
-        </is>
-      </c>
-      <c r="E193" t="n">
-        <v>1</v>
-      </c>
+          <t>/de/haushalt-tier/buero-papeterie/bueromaterial/diverses/qualite-prix-briefoeffner/p/4459893</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr"/>
+      <c r="E193" t="inlineStr"/>
       <c r="F193" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G193" t="inlineStr">
         <is>
@@ -12171,85 +12185,69 @@
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>3.95</t>
-        </is>
-      </c>
-      <c r="I193" t="inlineStr">
-        <is>
-          <t>1.98/1ST</t>
-        </is>
-      </c>
-      <c r="J193" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>1.98</t>
-        </is>
-      </c>
-      <c r="L193" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="I193" t="inlineStr"/>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
+      <c r="L193" t="inlineStr"/>
       <c r="M193" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'buero-papeterie', 'stifte-malfarben', 'bleistifte-minen']</t>
+          <t>['haushalt-tier', 'buero-papeterie', 'bueromaterial', 'diverses']</t>
         </is>
       </c>
       <c r="N193" t="inlineStr">
         <is>
-          <t>Qualité&amp;amp;Prix Minenbleistifte 0.7 mm 2 Stk. 3.95 Schweizer Franken</t>
+          <t>Qualité&amp;amp;Prix Brieföffner 1.90 Schweizer Franken</t>
         </is>
       </c>
       <c r="O193" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>3268753</t>
+          <t>3732922</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>tesa Powerstrips® SMALL weiss, 14 Strips</t>
+          <t>Qualité&amp;amp;Prix Minenbleistifte 0.7 mm 2 Stk.</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/buero-papeterie/kleber-schnur/tesa-powerstrips-small-weiss-14-strips/p/3268753</t>
+          <t>/de/haushalt-tier/buero-papeterie/stifte-malfarben/bleistifte-minen/qualite-prix-minenbleistifte-07-mm-2-stk/p/3732922</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>14ST</t>
+          <t>2ST</t>
         </is>
       </c>
       <c r="E194" t="n">
         <v>1</v>
       </c>
       <c r="F194" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>Tesa</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>5.95</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>0.43/1ST</t>
+          <t>1.98/1ST</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
@@ -12259,7 +12257,7 @@
       </c>
       <c r="K194" t="inlineStr">
         <is>
-          <t>0.43</t>
+          <t>1.98</t>
         </is>
       </c>
       <c r="L194" t="inlineStr">
@@ -12269,207 +12267,229 @@
       </c>
       <c r="M194" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'buero-papeterie', 'kleber-schnur']</t>
+          <t>['haushalt-tier', 'buero-papeterie', 'stifte-malfarben', 'bleistifte-minen']</t>
         </is>
       </c>
       <c r="N194" t="inlineStr">
         <is>
-          <t>tesa Powerstrips® SMALL weiss, 14 Strips 5.95 Schweizer Franken</t>
+          <t>Qualité&amp;amp;Prix Minenbleistifte 0.7 mm 2 Stk. 3.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O194" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>5779799</t>
+          <t>3268753</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Canon Tintenpatrone grey CLI-571XLGY</t>
+          <t>tesa Powerstrips® SMALL weiss, 14 Strips</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/buero-papeterie/druckerpatronen/canon/canon-tintenpatrone-grey-cli-571xlgy/p/5779799</t>
-        </is>
-      </c>
-      <c r="D195" t="inlineStr"/>
-      <c r="E195" t="inlineStr"/>
+          <t>/de/haushalt-tier/buero-papeterie/kleber-schnur/tesa-powerstrips-small-weiss-14-strips/p/3268753</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>14ST</t>
+        </is>
+      </c>
+      <c r="E195" t="n">
+        <v>1</v>
+      </c>
       <c r="F195" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>Canon</t>
+          <t>Tesa</t>
         </is>
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>21.95</t>
-        </is>
-      </c>
-      <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="I195" t="inlineStr">
+        <is>
+          <t>0.43/1ST</t>
+        </is>
+      </c>
+      <c r="J195" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="L195" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="M195" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'buero-papeterie', 'druckerpatronen', 'canon']</t>
+          <t>['haushalt-tier', 'buero-papeterie', 'kleber-schnur']</t>
         </is>
       </c>
       <c r="N195" t="inlineStr">
         <is>
-          <t>Canon Tintenpatrone grey CLI-571XLGY 21.95 Schweizer Franken</t>
+          <t>tesa Powerstrips® SMALL weiss, 14 Strips 5.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O195" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>4409821</t>
+          <t>5779799</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Elco Office Bewerbungskuvert</t>
+          <t>Canon Tintenpatrone grey CLI-571XLGY</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/buero-papeterie/karten-kuverts/elco-office-bewerbungskuvert/p/4409821</t>
-        </is>
-      </c>
-      <c r="D196" t="inlineStr">
-        <is>
-          <t>5ST</t>
-        </is>
-      </c>
+          <t>/de/haushalt-tier/buero-papeterie/druckerpatronen/canon/canon-tintenpatrone-grey-cli-571xlgy/p/5779799</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr"/>
       <c r="E196" t="inlineStr"/>
       <c r="F196" t="n">
         <v>0</v>
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>Elco</t>
+          <t>Canon</t>
         </is>
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>2.95</t>
-        </is>
-      </c>
-      <c r="I196" t="inlineStr">
-        <is>
-          <t>0.59/1ST</t>
-        </is>
-      </c>
-      <c r="J196" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>0.59</t>
-        </is>
-      </c>
-      <c r="L196" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>21.95</t>
+        </is>
+      </c>
+      <c r="I196" t="inlineStr"/>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" t="inlineStr"/>
       <c r="M196" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'buero-papeterie', 'karten-kuverts']</t>
+          <t>['haushalt-tier', 'buero-papeterie', 'druckerpatronen', 'canon']</t>
         </is>
       </c>
       <c r="N196" t="inlineStr">
         <is>
-          <t>Elco Office Bewerbungskuvert 50% Aktion 2.95 Schweizer Franken statt 5.95 Schweizer Franken</t>
+          <t>Canon Tintenpatrone grey CLI-571XLGY 21.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O196" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>4906004</t>
+          <t>4409821</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>HP Druckerpatrone 62XL color</t>
+          <t>Elco Office Bewerbungskuvert</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/buero-papeterie/druckerpatronen/hp/hp-druckerpatrone-62xl-color/p/4906004</t>
-        </is>
-      </c>
-      <c r="D197" t="inlineStr"/>
+          <t>/de/haushalt-tier/buero-papeterie/karten-kuverts/elco-office-bewerbungskuvert/p/4409821</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>5ST</t>
+        </is>
+      </c>
       <c r="E197" t="inlineStr"/>
       <c r="F197" t="n">
         <v>0</v>
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>HP</t>
+          <t>Elco</t>
         </is>
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>54.95</t>
-        </is>
-      </c>
-      <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="I197" t="inlineStr">
+        <is>
+          <t>0.59/1ST</t>
+        </is>
+      </c>
+      <c r="J197" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="L197" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="M197" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'buero-papeterie', 'druckerpatronen', 'hp']</t>
+          <t>['haushalt-tier', 'buero-papeterie', 'karten-kuverts']</t>
         </is>
       </c>
       <c r="N197" t="inlineStr">
         <is>
-          <t>HP Druckerpatrone 62XL color 54.95 Schweizer Franken</t>
+          <t>Elco Office Bewerbungskuvert 50% Aktion 2.95 Schweizer Franken statt 5.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O197" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>4906002</t>
+          <t>4906004</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>HP Patrone 62 color C2P06AE</t>
+          <t>HP Druckerpatrone 62XL color</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/buero-papeterie/druckerpatronen/hp/hp-patrone-62-color-c2p06ae/p/4906002</t>
+          <t>/de/haushalt-tier/buero-papeterie/druckerpatronen/hp/hp-druckerpatrone-62xl-color/p/4906004</t>
         </is>
       </c>
       <c r="D198" t="inlineStr"/>
@@ -12484,7 +12504,7 @@
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>27.95</t>
+          <t>54.95</t>
         </is>
       </c>
       <c r="I198" t="inlineStr"/>
@@ -12498,29 +12518,29 @@
       </c>
       <c r="N198" t="inlineStr">
         <is>
-          <t>HP Patrone 62 color C2P06AE 27.95 Schweizer Franken</t>
+          <t>HP Druckerpatrone 62XL color 54.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O198" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>6029336</t>
+          <t>4906002</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>HP Tintenpatrone 303  color EnvyPhoto623</t>
+          <t>HP Patrone 62 color C2P06AE</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/buero-papeterie/druckerpatronen/hp/hp-tintenpatrone-303-color-envyphoto623/p/6029336</t>
+          <t>/de/haushalt-tier/buero-papeterie/druckerpatronen/hp/hp-patrone-62-color-c2p06ae/p/4906002</t>
         </is>
       </c>
       <c r="D199" t="inlineStr"/>
@@ -12549,29 +12569,29 @@
       </c>
       <c r="N199" t="inlineStr">
         <is>
-          <t>HP Tintenpatrone 303  color EnvyPhoto623 27.95 Schweizer Franken</t>
+          <t>HP Patrone 62 color C2P06AE 27.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O199" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>3757381</t>
+          <t>6029336</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Maped Cutter Zenoa 9 mm</t>
+          <t>HP Tintenpatrone 303  color EnvyPhoto623</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/buero-papeterie/bueromaterial/diverses/maped-cutter-zenoa-9-mm/p/3757381</t>
+          <t>/de/haushalt-tier/buero-papeterie/druckerpatronen/hp/hp-tintenpatrone-303-color-envyphoto623/p/6029336</t>
         </is>
       </c>
       <c r="D200" t="inlineStr"/>
@@ -12581,12 +12601,12 @@
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>Maped</t>
+          <t>HP</t>
         </is>
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>3.80</t>
+          <t>27.95</t>
         </is>
       </c>
       <c r="I200" t="inlineStr"/>
@@ -12595,34 +12615,34 @@
       <c r="L200" t="inlineStr"/>
       <c r="M200" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'buero-papeterie', 'bueromaterial', 'diverses']</t>
+          <t>['haushalt-tier', 'buero-papeterie', 'druckerpatronen', 'hp']</t>
         </is>
       </c>
       <c r="N200" t="inlineStr">
         <is>
-          <t>Maped Cutter Zenoa 9 mm 3.80 Schweizer Franken</t>
+          <t>HP Tintenpatrone 303  color EnvyPhoto623 27.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O200" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>5729026</t>
+          <t>3757381</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Marienkäfer Klebepunkte klein 12 Stück</t>
+          <t>Maped Cutter Zenoa 9 mm</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/buero-papeterie/bueromaterial/diverses/marienkaefer-klebepunkte-klein-12-stueck/p/5729026</t>
+          <t>/de/haushalt-tier/buero-papeterie/bueromaterial/diverses/maped-cutter-zenoa-9-mm/p/3757381</t>
         </is>
       </c>
       <c r="D201" t="inlineStr"/>
@@ -12632,12 +12652,12 @@
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Maped</t>
         </is>
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>2.50</t>
+          <t>3.80</t>
         </is>
       </c>
       <c r="I201" t="inlineStr"/>
@@ -12651,36 +12671,32 @@
       </c>
       <c r="N201" t="inlineStr">
         <is>
-          <t>Marienkäfer Klebepunkte klein 12 Stück 2.50 Schweizer Franken</t>
+          <t>Maped Cutter Zenoa 9 mm 3.80 Schweizer Franken</t>
         </is>
       </c>
       <c r="O201" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>6350479</t>
+          <t>5729026</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Oecoplan Kuvert C5 Fenster re. 35  Stk.</t>
+          <t>Marienkäfer Klebepunkte klein 12 Stück</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/buero-papeterie/karten-kuverts/c5-und-c6/oecoplan-kuvert-c5-fenster-re-35-stk/p/6350479</t>
-        </is>
-      </c>
-      <c r="D202" t="inlineStr">
-        <is>
-          <t>35ST</t>
-        </is>
-      </c>
+          <t>/de/haushalt-tier/buero-papeterie/bueromaterial/diverses/marienkaefer-klebepunkte-klein-12-stueck/p/5729026</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr"/>
       <c r="E202" t="inlineStr"/>
       <c r="F202" t="n">
         <v>0</v>
@@ -12692,184 +12708,172 @@
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>3.20</t>
-        </is>
-      </c>
-      <c r="I202" t="inlineStr">
-        <is>
-          <t>0.09/1ST</t>
-        </is>
-      </c>
-      <c r="J202" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>0.09</t>
-        </is>
-      </c>
-      <c r="L202" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="I202" t="inlineStr"/>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
+      <c r="L202" t="inlineStr"/>
       <c r="M202" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'buero-papeterie', 'karten-kuverts', 'c5-und-c6']</t>
+          <t>['haushalt-tier', 'buero-papeterie', 'bueromaterial', 'diverses']</t>
         </is>
       </c>
       <c r="N202" t="inlineStr">
         <is>
-          <t>Oecoplan Kuvert C5 Fenster re. 35  Stk. 3.20 Schweizer Franken</t>
+          <t>Marienkäfer Klebepunkte klein 12 Stück 2.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="O202" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>6350720</t>
+          <t>6350479</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Pattex Sprühkleber permanent</t>
+          <t>Oecoplan Kuvert C5 Fenster re. 35  Stk.</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/buero-papeterie/kleber-schnur/kleber/pattex-spruehkleber-permanent/p/6350720</t>
-        </is>
-      </c>
-      <c r="D203" t="inlineStr"/>
+          <t>/de/haushalt-tier/buero-papeterie/karten-kuverts/c5-und-c6/oecoplan-kuvert-c5-fenster-re-35-stk/p/6350479</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>35ST</t>
+        </is>
+      </c>
       <c r="E203" t="inlineStr"/>
       <c r="F203" t="n">
         <v>0</v>
       </c>
       <c r="G203" t="inlineStr">
         <is>
-          <t>Pattex</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>4.95</t>
-        </is>
-      </c>
-      <c r="I203" t="inlineStr"/>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="I203" t="inlineStr">
+        <is>
+          <t>0.09/1ST</t>
+        </is>
+      </c>
+      <c r="J203" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="L203" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="M203" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'buero-papeterie', 'kleber-schnur', 'kleber']</t>
+          <t>['haushalt-tier', 'buero-papeterie', 'karten-kuverts', 'c5-und-c6']</t>
         </is>
       </c>
       <c r="N203" t="inlineStr">
         <is>
-          <t>Pattex Sprühkleber permanent 50% Aktion 4.95 Schweizer Franken statt 9.95 Schweizer Franken</t>
+          <t>Oecoplan Kuvert C5 Fenster re. 35  Stk. 3.20 Schweizer Franken</t>
         </is>
       </c>
       <c r="O203" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>3890443</t>
+          <t>6350720</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Qualité&amp;amp;Prix Büroklammern farbig 26 mm 150 Stk.</t>
+          <t>Pattex Sprühkleber permanent</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/buero-papeterie/bueromaterial/bueroklammern/qualite-prix-bueroklammern-farbig-26-mm-150-stk/p/3890443</t>
-        </is>
-      </c>
-      <c r="D204" t="inlineStr">
-        <is>
-          <t>150ST</t>
-        </is>
-      </c>
+          <t>/de/haushalt-tier/buero-papeterie/kleber-schnur/kleber/pattex-spruehkleber-permanent/p/6350720</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr"/>
       <c r="E204" t="inlineStr"/>
       <c r="F204" t="n">
         <v>0</v>
       </c>
       <c r="G204" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Pattex</t>
         </is>
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>1.95</t>
-        </is>
-      </c>
-      <c r="I204" t="inlineStr">
-        <is>
-          <t>0.01/1ST</t>
-        </is>
-      </c>
-      <c r="J204" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="L204" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="I204" t="inlineStr"/>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
+      <c r="L204" t="inlineStr"/>
       <c r="M204" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'buero-papeterie', 'bueromaterial', 'bueroklammern']</t>
+          <t>['haushalt-tier', 'buero-papeterie', 'kleber-schnur', 'kleber']</t>
         </is>
       </c>
       <c r="N204" t="inlineStr">
         <is>
-          <t>Qualité&amp;amp;Prix Büroklammern farbig 26 mm 150 Stk. 1.95 Schweizer Franken</t>
+          <t>Pattex Sprühkleber permanent 50% Aktion 4.95 Schweizer Franken statt 9.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O204" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>5728636</t>
+          <t>3890443</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Qualité&amp;amp;Prix Dokumententasche transparent</t>
+          <t>Qualité&amp;amp;Prix Büroklammern farbig 26 mm 150 Stk.</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/buero-papeterie/mappen-huellen-planer/mappen/qualite-prix-dokumententasche-transparent/p/5728636</t>
-        </is>
-      </c>
-      <c r="D205" t="inlineStr"/>
+          <t>/de/haushalt-tier/buero-papeterie/bueromaterial/bueroklammern/qualite-prix-bueroklammern-farbig-26-mm-150-stk/p/3890443</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>150ST</t>
+        </is>
+      </c>
       <c r="E205" t="inlineStr"/>
       <c r="F205" t="n">
         <v>0</v>
@@ -12881,50 +12885,62 @@
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>1.20</t>
-        </is>
-      </c>
-      <c r="I205" t="inlineStr"/>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr"/>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="I205" t="inlineStr">
+        <is>
+          <t>0.01/1ST</t>
+        </is>
+      </c>
+      <c r="J205" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="L205" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="M205" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'buero-papeterie', 'mappen-huellen-planer', 'mappen']</t>
+          <t>['haushalt-tier', 'buero-papeterie', 'bueromaterial', 'bueroklammern']</t>
         </is>
       </c>
       <c r="N205" t="inlineStr">
         <is>
-          <t>Qualité&amp;amp;Prix Dokumententasche transparent 1.20 Schweizer Franken</t>
+          <t>Qualité&amp;amp;Prix Büroklammern farbig 26 mm 150 Stk. 1.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O205" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>3670704</t>
+          <t>5728636</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Qualité&amp;amp;Prix Notizblock A4 gelocht kariert</t>
+          <t>Qualité&amp;amp;Prix Dokumententasche transparent</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/buero-papeterie/papier-bloecke-hefte/bloecke/qualite-prix-notizblock-a4-gelocht-kariert/p/3670704</t>
-        </is>
-      </c>
-      <c r="D206" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>/de/haushalt-tier/buero-papeterie/mappen-huellen-planer/mappen/qualite-prix-dokumententasche-transparent/p/5728636</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr"/>
       <c r="E206" t="inlineStr"/>
       <c r="F206" t="n">
         <v>0</v>
@@ -12936,67 +12952,53 @@
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>2.95</t>
-        </is>
-      </c>
-      <c r="I206" t="inlineStr">
-        <is>
-          <t>2.95/1ST</t>
-        </is>
-      </c>
-      <c r="J206" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>2.95</t>
-        </is>
-      </c>
-      <c r="L206" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="I206" t="inlineStr"/>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
+      <c r="L206" t="inlineStr"/>
       <c r="M206" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'buero-papeterie', 'papier-bloecke-hefte', 'bloecke']</t>
+          <t>['haushalt-tier', 'buero-papeterie', 'mappen-huellen-planer', 'mappen']</t>
         </is>
       </c>
       <c r="N206" t="inlineStr">
         <is>
-          <t>Qualité&amp;amp;Prix Notizblock A4 gelocht kariert 2.95 Schweizer Franken</t>
+          <t>Qualité&amp;amp;Prix Dokumententasche transparent 1.20 Schweizer Franken</t>
         </is>
       </c>
       <c r="O206" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>4132335</t>
+          <t>3670704</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Qualité&amp;amp;Prix Vielzweckklebstoff</t>
+          <t>Qualité&amp;amp;Prix Notizblock A4 gelocht kariert</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/buero-papeterie/kleber-schnur/kleber/qualite-prix-vielzweckklebstoff/p/4132335</t>
-        </is>
-      </c>
-      <c r="D207" t="inlineStr"/>
-      <c r="E207" t="n">
-        <v>1</v>
-      </c>
+          <t>/de/haushalt-tier/buero-papeterie/papier-bloecke-hefte/bloecke/qualite-prix-notizblock-a4-gelocht-kariert/p/3670704</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr"/>
       <c r="F207" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G207" t="inlineStr">
         <is>
@@ -13005,84 +13007,82 @@
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>1.50</t>
-        </is>
-      </c>
-      <c r="I207" t="inlineStr"/>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr"/>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="I207" t="inlineStr">
+        <is>
+          <t>2.95/1ST</t>
+        </is>
+      </c>
+      <c r="J207" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="L207" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="M207" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'buero-papeterie', 'kleber-schnur', 'kleber']</t>
+          <t>['haushalt-tier', 'buero-papeterie', 'papier-bloecke-hefte', 'bloecke']</t>
         </is>
       </c>
       <c r="N207" t="inlineStr">
         <is>
-          <t>Qualité&amp;amp;Prix Vielzweckklebstoff 1.50 Schweizer Franken</t>
+          <t>Qualité&amp;amp;Prix Notizblock A4 gelocht kariert 2.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O207" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>4639638</t>
+          <t>4132335</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Uhu Patafix Kleber transparent 56 Stück</t>
+          <t>Qualité&amp;amp;Prix Vielzweckklebstoff</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/buero-papeterie/kleber-schnur/kleber/uhu-patafix-kleber-transparent-56-stueck/p/4639638</t>
-        </is>
-      </c>
-      <c r="D208" t="inlineStr">
-        <is>
-          <t>56ST</t>
-        </is>
-      </c>
-      <c r="E208" t="inlineStr"/>
+          <t>/de/haushalt-tier/buero-papeterie/kleber-schnur/kleber/qualite-prix-vielzweckklebstoff/p/4132335</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr"/>
+      <c r="E208" t="n">
+        <v>1</v>
+      </c>
       <c r="F208" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G208" t="inlineStr">
         <is>
-          <t>Uhu</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>4.20</t>
-        </is>
-      </c>
-      <c r="I208" t="inlineStr">
-        <is>
-          <t>0.08/1ST</t>
-        </is>
-      </c>
-      <c r="J208" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>0.08</t>
-        </is>
-      </c>
-      <c r="L208" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="I208" t="inlineStr"/>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
+      <c r="L208" t="inlineStr"/>
       <c r="M208" t="inlineStr">
         <is>
           <t>['haushalt-tier', 'buero-papeterie', 'kleber-schnur', 'kleber']</t>
@@ -13090,63 +13090,83 @@
       </c>
       <c r="N208" t="inlineStr">
         <is>
-          <t>Uhu Patafix Kleber transparent 56 Stück 4.20 Schweizer Franken</t>
+          <t>Qualité&amp;amp;Prix Vielzweckklebstoff 1.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="O208" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>3890994</t>
+          <t>4639638</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>4 Pentel Faserschreiber Sign Pen S520, schwarz, rot, blau, grün</t>
+          <t>Uhu Patafix Kleber transparent 56 Stück</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/buero-papeterie/stifte-malfarben/filzstifte/4-pentel-faserschreiber-sign-pen-s520-schwarz-rot-blau-gruen/p/3890994</t>
-        </is>
-      </c>
-      <c r="D209" t="inlineStr"/>
+          <t>/de/haushalt-tier/buero-papeterie/kleber-schnur/kleber/uhu-patafix-kleber-transparent-56-stueck/p/4639638</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>56ST</t>
+        </is>
+      </c>
       <c r="E209" t="inlineStr"/>
       <c r="F209" t="n">
         <v>0</v>
       </c>
       <c r="G209" t="inlineStr">
         <is>
-          <t>Pentel</t>
+          <t>Uhu</t>
         </is>
       </c>
       <c r="H209" t="inlineStr">
         <is>
-          <t>7.50</t>
-        </is>
-      </c>
-      <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr"/>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="I209" t="inlineStr">
+        <is>
+          <t>0.08/1ST</t>
+        </is>
+      </c>
+      <c r="J209" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="L209" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="M209" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'buero-papeterie', 'stifte-malfarben', 'filzstifte']</t>
+          <t>['haushalt-tier', 'buero-papeterie', 'kleber-schnur', 'kleber']</t>
         </is>
       </c>
       <c r="N209" t="inlineStr">
         <is>
-          <t>4 Pentel Faserschreiber Sign Pen S520, schwarz, rot, blau, grün 7.50 Schweizer Franken</t>
+          <t>Uhu Patafix Kleber transparent 56 Stück 4.20 Schweizer Franken</t>
         </is>
       </c>
       <c r="O209" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
@@ -13197,7 +13217,7 @@
       </c>
       <c r="O210" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
@@ -13248,7 +13268,7 @@
       </c>
       <c r="O211" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
@@ -13299,7 +13319,7 @@
       </c>
       <c r="O212" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
@@ -13372,48 +13392,50 @@
       </c>
       <c r="O213" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>5754526</t>
+          <t>3268704</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Oecoplan Kuverts und Doppelkarten A6/C6 rot 10 Stk.</t>
+          <t>Pattex Sekundenkleber Flüssig</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/buero-papeterie/notizzettel-karteikarten/karteikarten/oecoplan-kuverts-und-doppelkarten-a6c6-rot-10-stk/p/5754526</t>
+          <t>/de/haushalt-tier/buero-papeterie/kleber-schnur/kleber/pattex-sekundenkleber-fluessig/p/3268704</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>10ST</t>
-        </is>
-      </c>
-      <c r="E214" t="inlineStr"/>
+          <t>1ST</t>
+        </is>
+      </c>
+      <c r="E214" t="n">
+        <v>2</v>
+      </c>
       <c r="F214" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G214" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Pattex</t>
         </is>
       </c>
       <c r="H214" t="inlineStr">
         <is>
-          <t>2.10</t>
+          <t>5.95</t>
         </is>
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>0.21/1ST</t>
+          <t>5.95/1ST</t>
         </is>
       </c>
       <c r="J214" t="inlineStr">
@@ -13423,7 +13445,7 @@
       </c>
       <c r="K214" t="inlineStr">
         <is>
-          <t>0.21</t>
+          <t>5.95</t>
         </is>
       </c>
       <c r="L214" t="inlineStr">
@@ -13433,34 +13455,34 @@
       </c>
       <c r="M214" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'buero-papeterie', 'notizzettel-karteikarten', 'karteikarten']</t>
+          <t>['haushalt-tier', 'buero-papeterie', 'kleber-schnur', 'kleber']</t>
         </is>
       </c>
       <c r="N214" t="inlineStr">
         <is>
-          <t>Oecoplan Kuverts und Doppelkarten A6/C6 rot 10 Stk. 50% Aktion 2.10 Schweizer Franken statt 4.20 Schweizer Franken</t>
+          <t>Pattex Sekundenkleber Flüssig 5.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O214" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>3268704</t>
+          <t>4353496</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Pattex Sekundenkleber Flüssig</t>
+          <t>Pilot FriXion Ball blau</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/buero-papeterie/kleber-schnur/kleber/pattex-sekundenkleber-fluessig/p/3268704</t>
+          <t>/de/haushalt-tier/buero-papeterie/stifte-malfarben/weitere-stifte/pilot-frixion-ball-blau/p/4353496</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
@@ -13472,21 +13494,21 @@
         <v>2</v>
       </c>
       <c r="F215" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G215" t="inlineStr">
         <is>
-          <t>Pattex</t>
+          <t>Pilot</t>
         </is>
       </c>
       <c r="H215" t="inlineStr">
         <is>
-          <t>5.95</t>
+          <t>4.70</t>
         </is>
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>5.95/1ST</t>
+          <t>4.70/1ST</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
@@ -13496,7 +13518,7 @@
       </c>
       <c r="K215" t="inlineStr">
         <is>
-          <t>5.95</t>
+          <t>4.70</t>
         </is>
       </c>
       <c r="L215" t="inlineStr">
@@ -13506,34 +13528,34 @@
       </c>
       <c r="M215" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'buero-papeterie', 'kleber-schnur', 'kleber']</t>
+          <t>['haushalt-tier', 'buero-papeterie', 'stifte-malfarben', 'weitere-stifte']</t>
         </is>
       </c>
       <c r="N215" t="inlineStr">
         <is>
-          <t>Pattex Sekundenkleber Flüssig 5.95 Schweizer Franken</t>
+          <t>Pilot FriXion Ball blau 4.70 Schweizer Franken</t>
         </is>
       </c>
       <c r="O215" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>4353496</t>
+          <t>4353535</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Pilot FriXion Ball blau</t>
+          <t>Pilot Frixion Clicker 0,7mm schwarz</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/buero-papeterie/stifte-malfarben/weitere-stifte/pilot-frixion-ball-blau/p/4353496</t>
+          <t>/de/haushalt-tier/buero-papeterie/stifte-malfarben/weitere-stifte/pilot-frixion-clicker-07mm-schwarz/p/4353535</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
@@ -13541,11 +13563,9 @@
           <t>1ST</t>
         </is>
       </c>
-      <c r="E216" t="n">
-        <v>2</v>
-      </c>
+      <c r="E216" t="inlineStr"/>
       <c r="F216" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G216" t="inlineStr">
         <is>
@@ -13584,34 +13604,34 @@
       </c>
       <c r="N216" t="inlineStr">
         <is>
-          <t>Pilot FriXion Ball blau 4.70 Schweizer Franken</t>
+          <t>Pilot Frixion Clicker 0,7mm schwarz 4.70 Schweizer Franken</t>
         </is>
       </c>
       <c r="O216" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>4353535</t>
+          <t>3664674</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Pilot Frixion Clicker 0,7mm schwarz</t>
+          <t>Qualité&amp;amp;Prix Kuvert B6 25 Stk.</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/buero-papeterie/stifte-malfarben/weitere-stifte/pilot-frixion-clicker-07mm-schwarz/p/4353535</t>
+          <t>/de/haushalt-tier/buero-papeterie/karten-kuverts/b6/qualite-prix-kuvert-b6-25-stk/p/3664674</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>1ST</t>
+          <t>25ST</t>
         </is>
       </c>
       <c r="E217" t="inlineStr"/>
@@ -13620,17 +13640,17 @@
       </c>
       <c r="G217" t="inlineStr">
         <is>
-          <t>Pilot</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H217" t="inlineStr">
         <is>
-          <t>4.70</t>
+          <t>2.20</t>
         </is>
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>4.70/1ST</t>
+          <t>0.09/1ST</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
@@ -13640,7 +13660,7 @@
       </c>
       <c r="K217" t="inlineStr">
         <is>
-          <t>4.70</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="L217" t="inlineStr">
@@ -13650,122 +13670,102 @@
       </c>
       <c r="M217" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'buero-papeterie', 'stifte-malfarben', 'weitere-stifte']</t>
+          <t>['haushalt-tier', 'buero-papeterie', 'karten-kuverts', 'b6']</t>
         </is>
       </c>
       <c r="N217" t="inlineStr">
         <is>
-          <t>Pilot Frixion Clicker 0,7mm schwarz 4.70 Schweizer Franken</t>
+          <t>Qualité&amp;amp;Prix Kuvert B6 25 Stk. 2.20 Schweizer Franken</t>
         </is>
       </c>
       <c r="O217" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>3664674</t>
+          <t>4638627</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Qualité&amp;amp;Prix Kuvert B6 25 Stk.</t>
+          <t>Scotch School Schere 13cm</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/buero-papeterie/karten-kuverts/b6/qualite-prix-kuvert-b6-25-stk/p/3664674</t>
-        </is>
-      </c>
-      <c r="D218" t="inlineStr">
-        <is>
-          <t>25ST</t>
-        </is>
-      </c>
-      <c r="E218" t="inlineStr"/>
+          <t>/de/haushalt-tier/buero-papeterie/bueromaterial/diverses/scotch-school-schere-13cm/p/4638627</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr"/>
+      <c r="E218" t="n">
+        <v>2</v>
+      </c>
       <c r="F218" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G218" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Scotch</t>
         </is>
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>2.20</t>
-        </is>
-      </c>
-      <c r="I218" t="inlineStr">
-        <is>
-          <t>0.09/1ST</t>
-        </is>
-      </c>
-      <c r="J218" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>0.09</t>
-        </is>
-      </c>
-      <c r="L218" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="I218" t="inlineStr"/>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
+      <c r="L218" t="inlineStr"/>
       <c r="M218" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'buero-papeterie', 'karten-kuverts', 'b6']</t>
+          <t>['haushalt-tier', 'buero-papeterie', 'bueromaterial', 'diverses']</t>
         </is>
       </c>
       <c r="N218" t="inlineStr">
         <is>
-          <t>Qualité&amp;amp;Prix Kuvert B6 25 Stk. 2.20 Schweizer Franken</t>
+          <t>Scotch School Schere 13cm 6.80 Schweizer Franken</t>
         </is>
       </c>
       <c r="O218" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>4638627</t>
+          <t>3890994</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Scotch School Schere 13cm</t>
+          <t>4 Pentel Faserschreiber Sign Pen S520, schwarz, rot, blau, grün</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/buero-papeterie/bueromaterial/diverses/scotch-school-schere-13cm/p/4638627</t>
+          <t>/de/haushalt-tier/buero-papeterie/stifte-malfarben/filzstifte/4-pentel-faserschreiber-sign-pen-s520-schwarz-rot-blau-gruen/p/3890994</t>
         </is>
       </c>
       <c r="D219" t="inlineStr"/>
-      <c r="E219" t="n">
-        <v>2</v>
-      </c>
+      <c r="E219" t="inlineStr"/>
       <c r="F219" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G219" t="inlineStr">
         <is>
-          <t>Scotch</t>
+          <t>Pentel</t>
         </is>
       </c>
       <c r="H219" t="inlineStr">
         <is>
-          <t>6.80</t>
+          <t>7.50</t>
         </is>
       </c>
       <c r="I219" t="inlineStr"/>
@@ -13774,17 +13774,17 @@
       <c r="L219" t="inlineStr"/>
       <c r="M219" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'buero-papeterie', 'bueromaterial', 'diverses']</t>
+          <t>['haushalt-tier', 'buero-papeterie', 'stifte-malfarben', 'filzstifte']</t>
         </is>
       </c>
       <c r="N219" t="inlineStr">
         <is>
-          <t>Scotch School Schere 13cm 6.80 Schweizer Franken</t>
+          <t>4 Pentel Faserschreiber Sign Pen S520, schwarz, rot, blau, grün 7.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="O219" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
@@ -13857,7 +13857,7 @@
       </c>
       <c r="O220" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
@@ -13910,7 +13910,7 @@
       </c>
       <c r="O221" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
@@ -13961,7 +13961,7 @@
       </c>
       <c r="O222" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
@@ -14012,7 +14012,7 @@
       </c>
       <c r="O223" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
@@ -14065,7 +14065,7 @@
       </c>
       <c r="O224" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
@@ -14138,7 +14138,7 @@
       </c>
       <c r="O225" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
@@ -14211,7 +14211,7 @@
       </c>
       <c r="O226" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
@@ -14264,29 +14264,29 @@
       </c>
       <c r="O227" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>4353497</t>
+          <t>3667779</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Pilot Frixion Point Stift 0,5mm blau</t>
+          <t>Oecoplan Kartonregister A4 10-tlg</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/buero-papeterie/stifte-malfarben/weitere-stifte/pilot-frixion-point-stift-05mm-blau/p/4353497</t>
+          <t>/de/inspiration-geschenke/saisonale-promotionen/buerobedarf/oecoplan-kartonregister-a4-10-tlg/p/3667779</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>1ST</t>
+          <t>2ST</t>
         </is>
       </c>
       <c r="E228" t="inlineStr"/>
@@ -14295,17 +14295,17 @@
       </c>
       <c r="G228" t="inlineStr">
         <is>
-          <t>Pilot</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H228" t="inlineStr">
         <is>
-          <t>4.70</t>
+          <t>3.20</t>
         </is>
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>4.70/1ST</t>
+          <t>1.60/1ST</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
@@ -14315,7 +14315,7 @@
       </c>
       <c r="K228" t="inlineStr">
         <is>
-          <t>4.70</t>
+          <t>1.60</t>
         </is>
       </c>
       <c r="L228" t="inlineStr">
@@ -14325,39 +14325,39 @@
       </c>
       <c r="M228" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'buero-papeterie', 'stifte-malfarben', 'weitere-stifte']</t>
+          <t>['inspiration-geschenke', 'saisonale-promotionen', 'buerobedarf']</t>
         </is>
       </c>
       <c r="N228" t="inlineStr">
         <is>
-          <t>Pilot Frixion Point Stift 0,5mm blau 4.70 Schweizer Franken</t>
+          <t>Oecoplan Kartonregister A4 10-tlg 3.20 Schweizer Franken</t>
         </is>
       </c>
       <c r="O228" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>4299587</t>
+          <t>4353497</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Pilot Tintenroller Frixion Ball Ersatz-Minen rot 3 Stück</t>
+          <t>Pilot Frixion Point Stift 0,5mm blau</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/buero-papeterie/stifte-malfarben/weitere-stifte/pilot-tintenroller-frixion-ball-ersatz-minen-rot-3-stueck/p/4299587</t>
+          <t>/de/haushalt-tier/buero-papeterie/stifte-malfarben/weitere-stifte/pilot-frixion-point-stift-05mm-blau/p/4353497</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>3ST</t>
+          <t>1ST</t>
         </is>
       </c>
       <c r="E229" t="inlineStr"/>
@@ -14371,12 +14371,12 @@
       </c>
       <c r="H229" t="inlineStr">
         <is>
-          <t>9.50</t>
+          <t>4.70</t>
         </is>
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>3.17/1ST</t>
+          <t>4.70/1ST</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
@@ -14386,7 +14386,7 @@
       </c>
       <c r="K229" t="inlineStr">
         <is>
-          <t>3.17</t>
+          <t>4.70</t>
         </is>
       </c>
       <c r="L229" t="inlineStr">
@@ -14401,116 +14401,116 @@
       </c>
       <c r="N229" t="inlineStr">
         <is>
-          <t>Pilot Tintenroller Frixion Ball Ersatz-Minen rot 3 Stück 9.50 Schweizer Franken</t>
+          <t>Pilot Frixion Point Stift 0,5mm blau 4.70 Schweizer Franken</t>
         </is>
       </c>
       <c r="O229" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>5910347</t>
+          <t>4299587</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>PRITT Korrekturroller (1 Stück)</t>
+          <t>Pilot Tintenroller Frixion Ball Ersatz-Minen rot 3 Stück</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>/de/inspiration-geschenke/saisonale-promotionen/buerobedarf/pritt-korrekturroller-1-stueck/p/5910347</t>
+          <t>/de/haushalt-tier/buero-papeterie/stifte-malfarben/weitere-stifte/pilot-tintenroller-frixion-ball-ersatz-minen-rot-3-stueck/p/4299587</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
         <is>
+          <t>3ST</t>
+        </is>
+      </c>
+      <c r="E230" t="inlineStr"/>
+      <c r="F230" t="n">
+        <v>0</v>
+      </c>
+      <c r="G230" t="inlineStr">
+        <is>
+          <t>Pilot</t>
+        </is>
+      </c>
+      <c r="H230" t="inlineStr">
+        <is>
+          <t>9.50</t>
+        </is>
+      </c>
+      <c r="I230" t="inlineStr">
+        <is>
+          <t>3.17/1ST</t>
+        </is>
+      </c>
+      <c r="J230" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="L230" t="inlineStr">
+        <is>
           <t>1ST</t>
         </is>
       </c>
-      <c r="E230" t="n">
-        <v>2</v>
-      </c>
-      <c r="F230" t="n">
-        <v>5</v>
-      </c>
-      <c r="G230" t="inlineStr">
-        <is>
-          <t>Pritt</t>
-        </is>
-      </c>
-      <c r="H230" t="inlineStr">
-        <is>
-          <t>4.95</t>
-        </is>
-      </c>
-      <c r="I230" t="inlineStr">
-        <is>
-          <t>4.95/1ST</t>
-        </is>
-      </c>
-      <c r="J230" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>4.95</t>
-        </is>
-      </c>
-      <c r="L230" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
       <c r="M230" t="inlineStr">
         <is>
-          <t>['inspiration-geschenke', 'saisonale-promotionen', 'buerobedarf']</t>
+          <t>['haushalt-tier', 'buero-papeterie', 'stifte-malfarben', 'weitere-stifte']</t>
         </is>
       </c>
       <c r="N230" t="inlineStr">
         <is>
-          <t>PRITT Korrekturroller (1 Stück) 4.95 Schweizer Franken</t>
+          <t>Pilot Tintenroller Frixion Ball Ersatz-Minen rot 3 Stück 9.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="O230" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>6689394</t>
+          <t>5910347</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Prix Garantie Duo Fasermaler 10 Stück</t>
+          <t>PRITT Korrekturroller (1 Stück)</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/buero-papeterie/stifte-malfarben/filzstifte/prix-garantie-duo-fasermaler-10-stueck/p/6689394</t>
+          <t>/de/inspiration-geschenke/saisonale-promotionen/buerobedarf/pritt-korrekturroller-1-stueck/p/5910347</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>10ST</t>
-        </is>
-      </c>
-      <c r="E231" t="inlineStr"/>
+          <t>1ST</t>
+        </is>
+      </c>
+      <c r="E231" t="n">
+        <v>2</v>
+      </c>
       <c r="F231" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G231" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Pritt</t>
         </is>
       </c>
       <c r="H231" t="inlineStr">
@@ -14520,7 +14520,7 @@
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>0.50/1ST</t>
+          <t>4.95/1ST</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
@@ -14530,7 +14530,7 @@
       </c>
       <c r="K231" t="inlineStr">
         <is>
-          <t>0.50</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="L231" t="inlineStr">
@@ -14540,39 +14540,39 @@
       </c>
       <c r="M231" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'buero-papeterie', 'stifte-malfarben', 'filzstifte']</t>
+          <t>['inspiration-geschenke', 'saisonale-promotionen', 'buerobedarf']</t>
         </is>
       </c>
       <c r="N231" t="inlineStr">
         <is>
-          <t>Prix Garantie Duo Fasermaler 10 Stück 4.95 Schweizer Franken</t>
+          <t>PRITT Korrekturroller (1 Stück) 4.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O231" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>3667796</t>
+          <t>6689394</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Qualité&amp;amp;Prix Kartonregister A4 extra-breit A-Z</t>
+          <t>Prix Garantie Duo Fasermaler 10 Stück</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/buero-papeterie/ordner-register/register/qualite-prix-kartonregister-a4-extra-breit-a-z/p/3667796</t>
+          <t>/de/haushalt-tier/buero-papeterie/stifte-malfarben/filzstifte/prix-garantie-duo-fasermaler-10-stueck/p/6689394</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>1ST</t>
+          <t>10ST</t>
         </is>
       </c>
       <c r="E232" t="inlineStr"/>
@@ -14586,12 +14586,12 @@
       </c>
       <c r="H232" t="inlineStr">
         <is>
-          <t>4.60</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>4.60/1ST</t>
+          <t>0.50/1ST</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
@@ -14601,7 +14601,7 @@
       </c>
       <c r="K232" t="inlineStr">
         <is>
-          <t>4.60</t>
+          <t>0.50</t>
         </is>
       </c>
       <c r="L232" t="inlineStr">
@@ -14611,37 +14611,41 @@
       </c>
       <c r="M232" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'buero-papeterie', 'ordner-register', 'register']</t>
+          <t>['haushalt-tier', 'buero-papeterie', 'stifte-malfarben', 'filzstifte']</t>
         </is>
       </c>
       <c r="N232" t="inlineStr">
         <is>
-          <t>Qualité&amp;amp;Prix Kartonregister A4 extra-breit A-Z 4.60 Schweizer Franken</t>
+          <t>Prix Garantie Duo Fasermaler 10 Stück 4.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O232" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>4132329</t>
+          <t>3667796</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Qualité&amp;amp;Prix Klebestift classic permanent 20g</t>
+          <t>Qualité&amp;amp;Prix Kartonregister A4 extra-breit A-Z</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/buero-papeterie/kleber-schnur/kleber/qualite-prix-klebestift-classic-permanent-20g/p/4132329</t>
-        </is>
-      </c>
-      <c r="D233" t="inlineStr"/>
+          <t>/de/haushalt-tier/buero-papeterie/ordner-register/register/qualite-prix-kartonregister-a4-extra-breit-a-z/p/3667796</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="E233" t="inlineStr"/>
       <c r="F233" t="n">
         <v>0</v>
@@ -14653,43 +14657,59 @@
       </c>
       <c r="H233" t="inlineStr">
         <is>
-          <t>2.35</t>
-        </is>
-      </c>
-      <c r="I233" t="inlineStr"/>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr"/>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="I233" t="inlineStr">
+        <is>
+          <t>4.60/1ST</t>
+        </is>
+      </c>
+      <c r="J233" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="L233" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="M233" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'buero-papeterie', 'kleber-schnur', 'kleber']</t>
+          <t>['haushalt-tier', 'buero-papeterie', 'ordner-register', 'register']</t>
         </is>
       </c>
       <c r="N233" t="inlineStr">
         <is>
-          <t>Qualité&amp;amp;Prix Klebestift classic permanent 20g 2.35 Schweizer Franken</t>
+          <t>Qualité&amp;amp;Prix Kartonregister A4 extra-breit A-Z 4.60 Schweizer Franken</t>
         </is>
       </c>
       <c r="O233" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>6400825</t>
+          <t>4132329</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Washitape Marienkäfer rot 2 x 10m</t>
+          <t>Qualité&amp;amp;Prix Klebestift classic permanent 20g</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/buero-papeterie/geschenkverpackung-baender/geschenk-dekoration/washitape-marienkaefer-rot-2-x-10m/p/6400825</t>
+          <t>/de/haushalt-tier/buero-papeterie/kleber-schnur/kleber/qualite-prix-klebestift-classic-permanent-20g/p/4132329</t>
         </is>
       </c>
       <c r="D234" t="inlineStr"/>
@@ -14697,10 +14717,14 @@
       <c r="F234" t="n">
         <v>0</v>
       </c>
-      <c r="G234" t="inlineStr"/>
+      <c r="G234" t="inlineStr">
+        <is>
+          <t>Coop</t>
+        </is>
+      </c>
       <c r="H234" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>2.35</t>
         </is>
       </c>
       <c r="I234" t="inlineStr"/>
@@ -14709,48 +14733,42 @@
       <c r="L234" t="inlineStr"/>
       <c r="M234" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'buero-papeterie', 'geschenkverpackung-baender', 'geschenk-dekoration']</t>
+          <t>['haushalt-tier', 'buero-papeterie', 'kleber-schnur', 'kleber']</t>
         </is>
       </c>
       <c r="N234" t="inlineStr">
         <is>
-          <t>Washitape Marienkäfer rot 2 x 10m 3.95 Schweizer Franken</t>
+          <t>Qualité&amp;amp;Prix Klebestift classic permanent 20g 2.35 Schweizer Franken</t>
         </is>
       </c>
       <c r="O234" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>4132330</t>
+          <t>6400825</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>Alleskleber</t>
+          <t>Washitape Marienkäfer rot 2 x 10m</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/buero-papeterie/kleber-schnur/kleber/alleskleber/p/4132330</t>
+          <t>/de/haushalt-tier/buero-papeterie/geschenkverpackung-baender/geschenk-dekoration/washitape-marienkaefer-rot-2-x-10m/p/6400825</t>
         </is>
       </c>
       <c r="D235" t="inlineStr"/>
-      <c r="E235" t="n">
-        <v>2</v>
-      </c>
+      <c r="E235" t="inlineStr"/>
       <c r="F235" t="n">
-        <v>5</v>
-      </c>
-      <c r="G235" t="inlineStr">
-        <is>
-          <t>Coop</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G235" t="inlineStr"/>
       <c r="H235" t="inlineStr">
         <is>
           <t>3.95</t>
@@ -14762,51 +14780,51 @@
       <c r="L235" t="inlineStr"/>
       <c r="M235" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'buero-papeterie', 'kleber-schnur', 'kleber']</t>
+          <t>['haushalt-tier', 'buero-papeterie', 'geschenkverpackung-baender', 'geschenk-dekoration']</t>
         </is>
       </c>
       <c r="N235" t="inlineStr">
         <is>
-          <t>Alleskleber 3.95 Schweizer Franken</t>
+          <t>Washitape Marienkäfer rot 2 x 10m 3.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O235" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>4409325</t>
+          <t>4132330</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Canon Druckerpatrone Multipack CLI-551</t>
+          <t>Alleskleber</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/buero-papeterie/druckerpatronen/canon/canon-druckerpatrone-multipack-cli-551/p/4409325</t>
+          <t>/de/haushalt-tier/buero-papeterie/kleber-schnur/kleber/alleskleber/p/4132330</t>
         </is>
       </c>
       <c r="D236" t="inlineStr"/>
       <c r="E236" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F236" t="n">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="G236" t="inlineStr">
         <is>
-          <t>Canon</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H236" t="inlineStr">
         <is>
-          <t>62.95</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="I236" t="inlineStr"/>
@@ -14815,40 +14833,42 @@
       <c r="L236" t="inlineStr"/>
       <c r="M236" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'buero-papeterie', 'druckerpatronen', 'canon']</t>
+          <t>['haushalt-tier', 'buero-papeterie', 'kleber-schnur', 'kleber']</t>
         </is>
       </c>
       <c r="N236" t="inlineStr">
         <is>
-          <t>Canon Druckerpatrone Multipack CLI-551 62.95 Schweizer Franken</t>
+          <t>Alleskleber 3.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O236" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>4949112</t>
+          <t>4409325</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>CANON LS270H Taschenrechner</t>
+          <t>Canon Druckerpatrone Multipack CLI-551</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/buero-papeterie/bueromaterial/diverses/canon-ls270h-taschenrechner/p/4949112</t>
+          <t>/de/haushalt-tier/buero-papeterie/druckerpatronen/canon/canon-druckerpatrone-multipack-cli-551/p/4409325</t>
         </is>
       </c>
       <c r="D237" t="inlineStr"/>
-      <c r="E237" t="inlineStr"/>
+      <c r="E237" t="n">
+        <v>6</v>
+      </c>
       <c r="F237" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="G237" t="inlineStr">
         <is>
@@ -14857,7 +14877,7 @@
       </c>
       <c r="H237" t="inlineStr">
         <is>
-          <t>9.95</t>
+          <t>62.95</t>
         </is>
       </c>
       <c r="I237" t="inlineStr"/>
@@ -14866,17 +14886,17 @@
       <c r="L237" t="inlineStr"/>
       <c r="M237" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'buero-papeterie', 'bueromaterial', 'diverses']</t>
+          <t>['haushalt-tier', 'buero-papeterie', 'druckerpatronen', 'canon']</t>
         </is>
       </c>
       <c r="N237" t="inlineStr">
         <is>
-          <t>CANON LS270H Taschenrechner 9.95 Schweizer Franken</t>
+          <t>Canon Druckerpatrone Multipack CLI-551 62.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O237" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
@@ -14929,7 +14949,7 @@
       </c>
       <c r="O238" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
@@ -14980,7 +15000,7 @@
       </c>
       <c r="O239" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
@@ -15033,7 +15053,7 @@
       </c>
       <c r="O240" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
@@ -15104,7 +15124,7 @@
       </c>
       <c r="O241" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
@@ -15175,158 +15195,156 @@
       </c>
       <c r="O242" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>3667779</t>
+          <t>4353531</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>Oecoplan Kartonregister A4 10-tlg</t>
+          <t>Pilot Tintenroller Frixion Ball Stift rot</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>/de/inspiration-geschenke/saisonale-promotionen/buerobedarf/oecoplan-kartonregister-a4-10-tlg/p/3667779</t>
-        </is>
-      </c>
-      <c r="D243" t="inlineStr">
-        <is>
-          <t>2ST</t>
-        </is>
-      </c>
+          <t>/de/haushalt-tier/buero-papeterie/stifte-malfarben/kugelschreiber/pilot-tintenroller-frixion-ball-stift-rot/p/4353531</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr"/>
       <c r="E243" t="inlineStr"/>
       <c r="F243" t="n">
         <v>0</v>
       </c>
       <c r="G243" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Pilot</t>
         </is>
       </c>
       <c r="H243" t="inlineStr">
         <is>
-          <t>3.20</t>
-        </is>
-      </c>
-      <c r="I243" t="inlineStr">
-        <is>
-          <t>1.60/1ST</t>
-        </is>
-      </c>
-      <c r="J243" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>1.60</t>
-        </is>
-      </c>
-      <c r="L243" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="I243" t="inlineStr"/>
+      <c r="J243" t="inlineStr"/>
+      <c r="K243" t="inlineStr"/>
+      <c r="L243" t="inlineStr"/>
       <c r="M243" t="inlineStr">
         <is>
-          <t>['inspiration-geschenke', 'saisonale-promotionen', 'buerobedarf']</t>
+          <t>['haushalt-tier', 'buero-papeterie', 'stifte-malfarben', 'kugelschreiber']</t>
         </is>
       </c>
       <c r="N243" t="inlineStr">
         <is>
-          <t>Oecoplan Kartonregister A4 10-tlg 3.20 Schweizer Franken</t>
+          <t>Pilot Tintenroller Frixion Ball Stift rot 4.70 Schweizer Franken</t>
         </is>
       </c>
       <c r="O243" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>4353531</t>
+          <t>4371715</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>Pilot Tintenroller Frixion Ball Stift rot</t>
+          <t>Qualité&amp;amp;Prix Haushalts &amp;amp; Büroschere 17.5cm</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/buero-papeterie/stifte-malfarben/kugelschreiber/pilot-tintenroller-frixion-ball-stift-rot/p/4353531</t>
-        </is>
-      </c>
-      <c r="D244" t="inlineStr"/>
-      <c r="E244" t="inlineStr"/>
+          <t>/de/haushalt-tier/buero-papeterie/bueromaterial/diverses/qualite-prix-haushalts-bueroschere-175cm/p/4371715</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
+      <c r="E244" t="n">
+        <v>1</v>
+      </c>
       <c r="F244" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G244" t="inlineStr">
         <is>
-          <t>Pilot</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H244" t="inlineStr">
         <is>
-          <t>4.70</t>
-        </is>
-      </c>
-      <c r="I244" t="inlineStr"/>
-      <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
-      <c r="L244" t="inlineStr"/>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="I244" t="inlineStr">
+        <is>
+          <t>5.95/1ST</t>
+        </is>
+      </c>
+      <c r="J244" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="L244" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="M244" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'buero-papeterie', 'stifte-malfarben', 'kugelschreiber']</t>
+          <t>['haushalt-tier', 'buero-papeterie', 'bueromaterial', 'diverses']</t>
         </is>
       </c>
       <c r="N244" t="inlineStr">
         <is>
-          <t>Pilot Tintenroller Frixion Ball Stift rot 4.70 Schweizer Franken</t>
+          <t>Qualité&amp;amp;Prix Haushalts &amp;amp; Büroschere 17.5cm 5.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O244" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>4371715</t>
+          <t>6569158</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>Qualité&amp;amp;Prix Haushalts &amp;amp; Büroschere 17.5cm</t>
+          <t>Rucksack Business Grau</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/buero-papeterie/bueromaterial/diverses/qualite-prix-haushalts-bueroschere-175cm/p/4371715</t>
-        </is>
-      </c>
-      <c r="D245" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>/de/haushalt-tier/buero-papeterie/rucksaecke-etuis/rucksack-business-grau/p/6569158</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr"/>
       <c r="E245" t="n">
         <v>1</v>
       </c>
       <c r="F245" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G245" t="inlineStr">
         <is>
@@ -15335,67 +15353,53 @@
       </c>
       <c r="H245" t="inlineStr">
         <is>
-          <t>5.95</t>
-        </is>
-      </c>
-      <c r="I245" t="inlineStr">
-        <is>
-          <t>5.95/1ST</t>
-        </is>
-      </c>
-      <c r="J245" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>5.95</t>
-        </is>
-      </c>
-      <c r="L245" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>14.95</t>
+        </is>
+      </c>
+      <c r="I245" t="inlineStr"/>
+      <c r="J245" t="inlineStr"/>
+      <c r="K245" t="inlineStr"/>
+      <c r="L245" t="inlineStr"/>
       <c r="M245" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'buero-papeterie', 'bueromaterial', 'diverses']</t>
+          <t>['haushalt-tier', 'buero-papeterie', 'rucksaecke-etuis']</t>
         </is>
       </c>
       <c r="N245" t="inlineStr">
         <is>
-          <t>Qualité&amp;amp;Prix Haushalts &amp;amp; Büroschere 17.5cm 5.95 Schweizer Franken</t>
+          <t>Rucksack Business Grau 50% Aktion 14.95 Schweizer Franken statt 29.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O245" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>6569158</t>
+          <t>5049125</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>Rucksack Business Grau</t>
+          <t>Ziermaschen 6Stück 15mm reflex</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/buero-papeterie/rucksaecke-etuis/rucksack-business-grau/p/6569158</t>
-        </is>
-      </c>
-      <c r="D246" t="inlineStr"/>
-      <c r="E246" t="n">
-        <v>1</v>
-      </c>
+          <t>/de/haushalt-tier/buero-papeterie/geschenkverpackung-baender/geschenk-dekoration/ziermaschen-6stueck-15mm-reflex/p/5049125</t>
+        </is>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>6ST</t>
+        </is>
+      </c>
+      <c r="E246" t="inlineStr"/>
       <c r="F246" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G246" t="inlineStr">
         <is>
@@ -15404,97 +15408,93 @@
       </c>
       <c r="H246" t="inlineStr">
         <is>
-          <t>14.95</t>
-        </is>
-      </c>
-      <c r="I246" t="inlineStr"/>
-      <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
-      <c r="L246" t="inlineStr"/>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="I246" t="inlineStr">
+        <is>
+          <t>0.65/1ST</t>
+        </is>
+      </c>
+      <c r="J246" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="L246" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="M246" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'buero-papeterie', 'rucksaecke-etuis']</t>
+          <t>['haushalt-tier', 'buero-papeterie', 'geschenkverpackung-baender', 'geschenk-dekoration']</t>
         </is>
       </c>
       <c r="N246" t="inlineStr">
         <is>
-          <t>Rucksack Business Grau 50% Aktion 14.95 Schweizer Franken statt 29.95 Schweizer Franken</t>
+          <t>Ziermaschen 6Stück 15mm reflex 3.90 Schweizer Franken</t>
         </is>
       </c>
       <c r="O246" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>5049125</t>
+          <t>4949112</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>Ziermaschen 6Stück 15mm reflex</t>
+          <t>CANON LS270H Taschenrechner</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/buero-papeterie/geschenkverpackung-baender/geschenk-dekoration/ziermaschen-6stueck-15mm-reflex/p/5049125</t>
-        </is>
-      </c>
-      <c r="D247" t="inlineStr">
-        <is>
-          <t>6ST</t>
-        </is>
-      </c>
+          <t>/de/haushalt-tier/buero-papeterie/bueromaterial/diverses/canon-ls270h-taschenrechner/p/4949112</t>
+        </is>
+      </c>
+      <c r="D247" t="inlineStr"/>
       <c r="E247" t="inlineStr"/>
       <c r="F247" t="n">
         <v>0</v>
       </c>
       <c r="G247" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Canon</t>
         </is>
       </c>
       <c r="H247" t="inlineStr">
         <is>
-          <t>3.90</t>
-        </is>
-      </c>
-      <c r="I247" t="inlineStr">
-        <is>
-          <t>0.65/1ST</t>
-        </is>
-      </c>
-      <c r="J247" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>0.65</t>
-        </is>
-      </c>
-      <c r="L247" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>9.95</t>
+        </is>
+      </c>
+      <c r="I247" t="inlineStr"/>
+      <c r="J247" t="inlineStr"/>
+      <c r="K247" t="inlineStr"/>
+      <c r="L247" t="inlineStr"/>
       <c r="M247" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'buero-papeterie', 'geschenkverpackung-baender', 'geschenk-dekoration']</t>
+          <t>['haushalt-tier', 'buero-papeterie', 'bueromaterial', 'diverses']</t>
         </is>
       </c>
       <c r="N247" t="inlineStr">
         <is>
-          <t>Ziermaschen 6Stück 15mm reflex 3.90 Schweizer Franken</t>
+          <t>CANON LS270H Taschenrechner 9.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O247" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
@@ -15545,7 +15545,7 @@
       </c>
       <c r="O248" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
@@ -15598,7 +15598,7 @@
       </c>
       <c r="O249" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
@@ -15669,7 +15669,7 @@
       </c>
       <c r="O250" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
@@ -15740,7 +15740,7 @@
       </c>
       <c r="O251" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
@@ -15791,7 +15791,7 @@
       </c>
       <c r="O252" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
@@ -15842,7 +15842,7 @@
       </c>
       <c r="O253" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
@@ -15893,7 +15893,7 @@
       </c>
       <c r="O254" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
@@ -15944,7 +15944,7 @@
       </c>
       <c r="O255" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
@@ -16015,7 +16015,7 @@
       </c>
       <c r="O256" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
@@ -16086,7 +16086,7 @@
       </c>
       <c r="O257" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
@@ -16157,7 +16157,7 @@
       </c>
       <c r="O258" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
@@ -16208,7 +16208,7 @@
       </c>
       <c r="O259" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
@@ -16255,7 +16255,7 @@
       </c>
       <c r="O260" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
@@ -16326,7 +16326,7 @@
       </c>
       <c r="O261" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
@@ -16377,7 +16377,7 @@
       </c>
       <c r="O262" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
@@ -16428,7 +16428,7 @@
       </c>
       <c r="O263" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
@@ -16481,7 +16481,7 @@
       </c>
       <c r="O264" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
@@ -16532,7 +16532,7 @@
       </c>
       <c r="O265" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
@@ -16603,7 +16603,7 @@
       </c>
       <c r="O266" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
@@ -16674,7 +16674,7 @@
       </c>
       <c r="O267" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
@@ -16725,7 +16725,7 @@
       </c>
       <c r="O268" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
@@ -16778,7 +16778,7 @@
       </c>
       <c r="O269" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
@@ -16829,7 +16829,7 @@
       </c>
       <c r="O270" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
@@ -16900,7 +16900,7 @@
       </c>
       <c r="O271" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
@@ -16951,7 +16951,7 @@
       </c>
       <c r="O272" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
@@ -17022,7 +17022,7 @@
       </c>
       <c r="O273" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
@@ -17093,7 +17093,7 @@
       </c>
       <c r="O274" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
@@ -17164,7 +17164,7 @@
       </c>
       <c r="O275" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
@@ -17235,7 +17235,7 @@
       </c>
       <c r="O276" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
@@ -17306,7 +17306,7 @@
       </c>
       <c r="O277" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
@@ -17359,7 +17359,7 @@
       </c>
       <c r="O278" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
@@ -17432,7 +17432,7 @@
       </c>
       <c r="O279" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
@@ -17483,7 +17483,7 @@
       </c>
       <c r="O280" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
@@ -17536,7 +17536,7 @@
       </c>
       <c r="O281" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
@@ -17587,7 +17587,7 @@
       </c>
       <c r="O282" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
@@ -17638,7 +17638,7 @@
       </c>
       <c r="O283" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
@@ -17711,7 +17711,7 @@
       </c>
       <c r="O284" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
@@ -17782,7 +17782,7 @@
       </c>
       <c r="O285" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
@@ -17833,7 +17833,7 @@
       </c>
       <c r="O286" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
@@ -17904,7 +17904,7 @@
       </c>
       <c r="O287" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
@@ -17955,7 +17955,7 @@
       </c>
       <c r="O288" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
@@ -18008,7 +18008,7 @@
       </c>
       <c r="O289" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
@@ -18059,7 +18059,7 @@
       </c>
       <c r="O290" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
@@ -18110,7 +18110,7 @@
       </c>
       <c r="O291" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
@@ -18161,7 +18161,7 @@
       </c>
       <c r="O292" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
@@ -18212,7 +18212,7 @@
       </c>
       <c r="O293" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
@@ -18263,7 +18263,7 @@
       </c>
       <c r="O294" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
@@ -18316,7 +18316,7 @@
       </c>
       <c r="O295" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
@@ -18369,7 +18369,7 @@
       </c>
       <c r="O296" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
@@ -18440,7 +18440,7 @@
       </c>
       <c r="O297" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
@@ -18511,7 +18511,7 @@
       </c>
       <c r="O298" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
@@ -18582,7 +18582,7 @@
       </c>
       <c r="O299" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
@@ -18633,7 +18633,7 @@
       </c>
       <c r="O300" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
@@ -18684,7 +18684,7 @@
       </c>
       <c r="O301" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
@@ -18755,7 +18755,7 @@
       </c>
       <c r="O302" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
@@ -18806,7 +18806,7 @@
       </c>
       <c r="O303" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
@@ -18877,7 +18877,7 @@
       </c>
       <c r="O304" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
@@ -18948,7 +18948,7 @@
       </c>
       <c r="O305" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
@@ -19001,7 +19001,7 @@
       </c>
       <c r="O306" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
@@ -19052,7 +19052,7 @@
       </c>
       <c r="O307" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
@@ -19103,7 +19103,7 @@
       </c>
       <c r="O308" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
@@ -19154,7 +19154,7 @@
       </c>
       <c r="O309" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
@@ -19225,7 +19225,7 @@
       </c>
       <c r="O310" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
@@ -19276,7 +19276,7 @@
       </c>
       <c r="O311" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
@@ -19347,7 +19347,7 @@
       </c>
       <c r="O312" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
@@ -19400,7 +19400,7 @@
       </c>
       <c r="O313" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
@@ -19451,7 +19451,7 @@
       </c>
       <c r="O314" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
@@ -19504,7 +19504,7 @@
       </c>
       <c r="O315" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
@@ -19555,7 +19555,7 @@
       </c>
       <c r="O316" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
@@ -19626,7 +19626,7 @@
       </c>
       <c r="O317" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
@@ -19677,7 +19677,7 @@
       </c>
       <c r="O318" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
@@ -19748,7 +19748,7 @@
       </c>
       <c r="O319" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
@@ -19819,7 +19819,7 @@
       </c>
       <c r="O320" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
@@ -19870,7 +19870,7 @@
       </c>
       <c r="O321" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
@@ -19941,7 +19941,7 @@
       </c>
       <c r="O322" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
@@ -19992,7 +19992,7 @@
       </c>
       <c r="O323" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
@@ -20063,7 +20063,7 @@
       </c>
       <c r="O324" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
@@ -20114,7 +20114,7 @@
       </c>
       <c r="O325" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
@@ -20165,7 +20165,7 @@
       </c>
       <c r="O326" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
@@ -20216,7 +20216,7 @@
       </c>
       <c r="O327" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
@@ -20267,7 +20267,7 @@
       </c>
       <c r="O328" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
@@ -20318,7 +20318,7 @@
       </c>
       <c r="O329" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
@@ -20371,7 +20371,7 @@
       </c>
       <c r="O330" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
@@ -20422,7 +20422,7 @@
       </c>
       <c r="O331" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
@@ -20475,7 +20475,7 @@
       </c>
       <c r="O332" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
@@ -20526,7 +20526,7 @@
       </c>
       <c r="O333" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
@@ -20577,7 +20577,7 @@
       </c>
       <c r="O334" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
@@ -20628,7 +20628,7 @@
       </c>
       <c r="O335" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
@@ -20679,7 +20679,7 @@
       </c>
       <c r="O336" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
@@ -20730,7 +20730,7 @@
       </c>
       <c r="O337" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
@@ -20781,7 +20781,7 @@
       </c>
       <c r="O338" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
@@ -20852,7 +20852,7 @@
       </c>
       <c r="O339" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
@@ -20903,7 +20903,7 @@
       </c>
       <c r="O340" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
@@ -20954,7 +20954,7 @@
       </c>
       <c r="O341" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
@@ -21005,7 +21005,7 @@
       </c>
       <c r="O342" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
@@ -21058,7 +21058,7 @@
       </c>
       <c r="O343" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
@@ -21109,7 +21109,7 @@
       </c>
       <c r="O344" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
@@ -21160,7 +21160,7 @@
       </c>
       <c r="O345" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
@@ -21211,7 +21211,7 @@
       </c>
       <c r="O346" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
@@ -21262,7 +21262,7 @@
       </c>
       <c r="O347" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
@@ -21313,7 +21313,7 @@
       </c>
       <c r="O348" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
@@ -21364,7 +21364,7 @@
       </c>
       <c r="O349" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
@@ -21415,7 +21415,7 @@
       </c>
       <c r="O350" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
@@ -21466,7 +21466,7 @@
       </c>
       <c r="O351" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
@@ -21537,7 +21537,7 @@
       </c>
       <c r="O352" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
@@ -21608,7 +21608,7 @@
       </c>
       <c r="O353" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
@@ -21679,7 +21679,7 @@
       </c>
       <c r="O354" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
@@ -21732,7 +21732,7 @@
       </c>
       <c r="O355" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
@@ -21785,7 +21785,7 @@
       </c>
       <c r="O356" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
@@ -21836,7 +21836,7 @@
       </c>
       <c r="O357" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
@@ -21889,7 +21889,7 @@
       </c>
       <c r="O358" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
@@ -21942,7 +21942,7 @@
       </c>
       <c r="O359" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
@@ -21995,7 +21995,7 @@
       </c>
       <c r="O360" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
@@ -22046,7 +22046,7 @@
       </c>
       <c r="O361" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
@@ -22097,7 +22097,7 @@
       </c>
       <c r="O362" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
@@ -22170,7 +22170,7 @@
       </c>
       <c r="O363" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
@@ -22221,7 +22221,7 @@
       </c>
       <c r="O364" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
@@ -22292,7 +22292,7 @@
       </c>
       <c r="O365" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
@@ -22343,7 +22343,7 @@
       </c>
       <c r="O366" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
@@ -22414,7 +22414,7 @@
       </c>
       <c r="O367" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
@@ -22485,7 +22485,7 @@
       </c>
       <c r="O368" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
@@ -22536,7 +22536,7 @@
       </c>
       <c r="O369" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
@@ -22589,7 +22589,7 @@
       </c>
       <c r="O370" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
@@ -22660,7 +22660,7 @@
       </c>
       <c r="O371" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
@@ -22713,7 +22713,7 @@
       </c>
       <c r="O372" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
@@ -22784,7 +22784,7 @@
       </c>
       <c r="O373" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
@@ -22855,7 +22855,7 @@
       </c>
       <c r="O374" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
@@ -22926,7 +22926,7 @@
       </c>
       <c r="O375" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
@@ -22997,7 +22997,7 @@
       </c>
       <c r="O376" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
@@ -23068,7 +23068,7 @@
       </c>
       <c r="O377" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
@@ -23139,7 +23139,7 @@
       </c>
       <c r="O378" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
@@ -23212,7 +23212,7 @@
       </c>
       <c r="O379" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
@@ -23283,7 +23283,7 @@
       </c>
       <c r="O380" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
@@ -23336,7 +23336,7 @@
       </c>
       <c r="O381" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
@@ -23409,7 +23409,7 @@
       </c>
       <c r="O382" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
@@ -23480,7 +23480,7 @@
       </c>
       <c r="O383" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
@@ -23533,7 +23533,7 @@
       </c>
       <c r="O384" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
@@ -23586,7 +23586,7 @@
       </c>
       <c r="O385" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
@@ -23637,7 +23637,7 @@
       </c>
       <c r="O386" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
@@ -23708,7 +23708,7 @@
       </c>
       <c r="O387" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
@@ -23781,7 +23781,7 @@
       </c>
       <c r="O388" t="inlineStr">
         <is>
-          <t>2022-09-17 07:03:07</t>
+          <t>2022-09-17 20:59:55</t>
         </is>
       </c>
     </row>
